--- a/maldi_plate_template.xlsx
+++ b/maldi_plate_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMC\Documents\GitHub\IDBac_R01_Protocols\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chase\Documents\GitHub\IDBac_R01_Protocols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DA92EC8-38AF-4808-A929-01E70CA851C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D777BD-23B1-4DDB-A95B-F87BA58A967C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -689,19 +689,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="11.33203125" style="4" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="25" width="11.28515625" style="4" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
@@ -714,7 +714,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
@@ -745,14 +745,13 @@
       <c r="K2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="O2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -783,13 +782,12 @@
       <c r="K3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="O3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="13"/>
+      <c r="O3" s="13"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
@@ -820,12 +818,12 @@
       <c r="K4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="11"/>
+      <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>30</v>
       </c>
@@ -857,7 +855,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>1</v>
@@ -932,7 +930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -941,7 +939,7 @@
         <v>A1</v>
       </c>
       <c r="C9" s="15" t="str">
-        <f t="shared" ref="C9:E24" si="0">IF(ISBLANK($B$2), "", $B$2)</f>
+        <f t="shared" ref="C9:E9" si="0">IF(ISBLANK($B$2), "", $B$2)</f>
         <v>A1</v>
       </c>
       <c r="D9" s="15" t="str">
@@ -984,20 +982,56 @@
         <f t="shared" si="2"/>
         <v>D7</v>
       </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
+      <c r="N9" s="15" t="str">
+        <f>IF(ISBLANK($B$4), "", $B$4)</f>
+        <v>C1</v>
+      </c>
+      <c r="O9" s="15" t="str">
+        <f>IF(ISBLANK($B$4), "", $B$4)</f>
+        <v>C1</v>
+      </c>
+      <c r="P9" s="15" t="str">
+        <f>IF(ISBLANK($B$4), "", $B$4)</f>
+        <v>C1</v>
+      </c>
+      <c r="Q9" s="15" t="str">
+        <f>IF(ISBLANK($B$4), "", $B$4)</f>
+        <v>C1</v>
+      </c>
+      <c r="R9" s="14" t="str">
+        <f>IF(ISBLANK($K$2), "", $K$2)</f>
+        <v>A10</v>
+      </c>
+      <c r="S9" s="14" t="str">
+        <f t="shared" ref="S9:T9" si="3">IF(ISBLANK($K$2), "", $K$2)</f>
+        <v>A10</v>
+      </c>
+      <c r="T9" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>A10</v>
+      </c>
+      <c r="U9" s="14" t="str">
+        <f>IF(ISBLANK($K$2), "", $K$2)</f>
+        <v>A10</v>
+      </c>
+      <c r="V9" s="15" t="str">
+        <f>IF(ISBLANK($B$5), "", $B$5)</f>
+        <v>D1</v>
+      </c>
+      <c r="W9" s="15" t="str">
+        <f>IF(ISBLANK($B$5), "", $B$5)</f>
+        <v>D1</v>
+      </c>
+      <c r="X9" s="15" t="str">
+        <f>IF(ISBLANK($B$5), "", $B$5)</f>
+        <v>D1</v>
+      </c>
+      <c r="Y9" s="15" t="str">
+        <f>IF(ISBLANK($B$5), "", $B$5)</f>
+        <v>D1</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1057,24 +1091,36 @@
       <c r="Q10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="R10" s="14"/>
+      <c r="R10" s="14" t="str">
+        <f>IF(ISBLANK($I$2), "", $I$2)</f>
+        <v>A8</v>
+      </c>
       <c r="S10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="T10" s="14"/>
+      <c r="T10" s="14" t="str">
+        <f>IF(ISBLANK($I$2), "", $I$2)</f>
+        <v>A8</v>
+      </c>
       <c r="U10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="V10" s="14"/>
+      <c r="V10" s="14" t="str">
+        <f>IF(ISBLANK($I$2), "", $I$2)</f>
+        <v>A8</v>
+      </c>
       <c r="W10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="X10" s="14"/>
+      <c r="X10" s="14" t="str">
+        <f>IF(ISBLANK($I$2), "", $I$2)</f>
+        <v>A8</v>
+      </c>
       <c r="Y10" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1099,47 +1145,83 @@
         <v>B5</v>
       </c>
       <c r="G11" s="15" t="str">
-        <f t="shared" ref="G11:I11" si="3">IF(ISBLANK($F$3), "", $F$3)</f>
+        <f t="shared" ref="G11:I11" si="4">IF(ISBLANK($F$3), "", $F$3)</f>
         <v>B5</v>
       </c>
       <c r="H11" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>B5</v>
       </c>
       <c r="I11" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>B5</v>
       </c>
       <c r="J11" s="14" t="str">
-        <f>IF(ISBLANK($B$4), "", $B$4)</f>
-        <v>C1</v>
+        <f>IF(ISBLANK($I$3), "", $I$3)</f>
+        <v>B8</v>
       </c>
       <c r="K11" s="14" t="str">
-        <f>IF(ISBLANK($B$4), "", $B$4)</f>
-        <v>C1</v>
+        <f t="shared" ref="K11:M11" si="5">IF(ISBLANK($I$3), "", $I$3)</f>
+        <v>B8</v>
       </c>
       <c r="L11" s="14" t="str">
-        <f>IF(ISBLANK($B$4), "", $B$4)</f>
-        <v>C1</v>
+        <f t="shared" si="5"/>
+        <v>B8</v>
       </c>
       <c r="M11" s="14" t="str">
-        <f>IF(ISBLANK($B$4), "", $B$4)</f>
-        <v>C1</v>
-      </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
+        <f t="shared" si="5"/>
+        <v>B8</v>
+      </c>
+      <c r="N11" s="15" t="str">
+        <f t="shared" ref="N11:Q11" si="6">IF(ISBLANK($B$3), "", $B$3)</f>
+        <v>B1</v>
+      </c>
+      <c r="O11" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>B1</v>
+      </c>
+      <c r="P11" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>B1</v>
+      </c>
+      <c r="Q11" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>B1</v>
+      </c>
+      <c r="R11" s="15" t="str">
+        <f>IF(ISBLANK($D$2), "", $D$2)</f>
+        <v>A3</v>
+      </c>
+      <c r="S11" s="15" t="str">
+        <f>IF(ISBLANK($D$2), "", $D$2)</f>
+        <v>A3</v>
+      </c>
+      <c r="T11" s="15" t="str">
+        <f>IF(ISBLANK($D$2), "", $D$2)</f>
+        <v>A3</v>
+      </c>
+      <c r="U11" s="15" t="str">
+        <f>IF(ISBLANK($D$2), "", $D$2)</f>
+        <v>A3</v>
+      </c>
+      <c r="V11" s="15" t="str">
+        <f>IF(ISBLANK($E$4), "", $E$4)</f>
+        <v>C4</v>
+      </c>
+      <c r="W11" s="15" t="str">
+        <f>IF(ISBLANK($E$4), "", $E$4)</f>
+        <v>C4</v>
+      </c>
+      <c r="X11" s="15" t="str">
+        <f>IF(ISBLANK($E$4), "", $E$4)</f>
+        <v>C4</v>
+      </c>
+      <c r="Y11" s="15" t="str">
+        <f>IF(ISBLANK($E$4), "", $E$4)</f>
+        <v>C4</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1164,47 +1246,83 @@
         <v>C5</v>
       </c>
       <c r="G12" s="15" t="str">
-        <f t="shared" ref="G12:I12" si="4">IF(ISBLANK($F$4), "", $F$4)</f>
+        <f t="shared" ref="G12:I12" si="7">IF(ISBLANK($F$4), "", $F$4)</f>
         <v>C5</v>
       </c>
       <c r="H12" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>C5</v>
       </c>
       <c r="I12" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>C5</v>
       </c>
       <c r="J12" s="14" t="str">
-        <f>IF(ISBLANK($B$5), "", $B$5)</f>
-        <v>D1</v>
+        <f>IF(ISBLANK($I$4), "", $I$4)</f>
+        <v>C8</v>
       </c>
       <c r="K12" s="14" t="str">
-        <f>IF(ISBLANK($B$5), "", $B$5)</f>
-        <v>D1</v>
+        <f t="shared" ref="K12:M12" si="8">IF(ISBLANK($I$4), "", $I$4)</f>
+        <v>C8</v>
       </c>
       <c r="L12" s="14" t="str">
-        <f>IF(ISBLANK($B$5), "", $B$5)</f>
-        <v>D1</v>
+        <f t="shared" si="8"/>
+        <v>C8</v>
       </c>
       <c r="M12" s="14" t="str">
-        <f>IF(ISBLANK($B$5), "", $B$5)</f>
-        <v>D1</v>
-      </c>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
+        <f t="shared" si="8"/>
+        <v>C8</v>
+      </c>
+      <c r="N12" s="15" t="str">
+        <f>IF(ISBLANK($C$3), "", $C$3)</f>
+        <v>B2</v>
+      </c>
+      <c r="O12" s="15" t="str">
+        <f>IF(ISBLANK($C$3), "", $C$3)</f>
+        <v>B2</v>
+      </c>
+      <c r="P12" s="15" t="str">
+        <f>IF(ISBLANK($C$3), "", $C$3)</f>
+        <v>B2</v>
+      </c>
+      <c r="Q12" s="15" t="str">
+        <f>IF(ISBLANK($C$3), "", $C$3)</f>
+        <v>B2</v>
+      </c>
+      <c r="R12" s="15" t="str">
+        <f t="shared" ref="R12:U12" si="9">IF(ISBLANK($C$5), "", $C$5)</f>
+        <v>D2</v>
+      </c>
+      <c r="S12" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v>D2</v>
+      </c>
+      <c r="T12" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v>D2</v>
+      </c>
+      <c r="U12" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v>D2</v>
+      </c>
+      <c r="V12" s="14" t="str">
+        <f>IF(ISBLANK($I$4), "", $I$4)</f>
+        <v>C8</v>
+      </c>
+      <c r="W12" s="14" t="str">
+        <f t="shared" ref="W12:Y12" si="10">IF(ISBLANK($I$4), "", $I$4)</f>
+        <v>C8</v>
+      </c>
+      <c r="X12" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v>C8</v>
+      </c>
+      <c r="Y12" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v>C8</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -1237,45 +1355,63 @@
         <v>17</v>
       </c>
       <c r="J13" s="14" t="str">
-        <f>IF(ISBLANK($C$2), "", $C$2)</f>
-        <v>A2</v>
+        <f>IF(ISBLANK($I$5), "", $I$5)</f>
+        <v>D8</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="14" t="str">
-        <f>IF(ISBLANK($C$2), "", $C$2)</f>
-        <v>A2</v>
+        <f>IF(ISBLANK($I$5), "", $I$5)</f>
+        <v>D8</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="14"/>
+      <c r="N13" s="14" t="str">
+        <f>IF(ISBLANK($I$5), "", $I$5)</f>
+        <v>D8</v>
+      </c>
       <c r="O13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P13" s="14"/>
+      <c r="P13" s="14" t="str">
+        <f>IF(ISBLANK($I$5), "", $I$5)</f>
+        <v>D8</v>
+      </c>
       <c r="Q13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="14"/>
+      <c r="R13" s="14" t="str">
+        <f>IF(ISBLANK($K$3), "", $K$3)</f>
+        <v>B10</v>
+      </c>
       <c r="S13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="T13" s="14"/>
+      <c r="T13" s="14" t="str">
+        <f>IF(ISBLANK($K$3), "", $K$3)</f>
+        <v>B10</v>
+      </c>
       <c r="U13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="V13" s="14"/>
+      <c r="V13" s="14" t="str">
+        <f>IF(ISBLANK($K$3), "", $K$3)</f>
+        <v>B10</v>
+      </c>
       <c r="W13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="X13" s="14"/>
+      <c r="X13" s="14" t="str">
+        <f>IF(ISBLANK($K$3), "", $K$3)</f>
+        <v>B10</v>
+      </c>
       <c r="Y13" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1300,47 +1436,83 @@
         <v>D5</v>
       </c>
       <c r="G14" s="15" t="str">
-        <f t="shared" ref="G14:I14" si="5">IF(ISBLANK($F$5), "", $F$5)</f>
+        <f t="shared" ref="G14:I14" si="11">IF(ISBLANK($F$5), "", $F$5)</f>
         <v>D5</v>
       </c>
       <c r="H14" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>D5</v>
       </c>
       <c r="I14" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>D5</v>
       </c>
       <c r="J14" s="14" t="str">
-        <f>IF(ISBLANK($C$3), "", $C$3)</f>
-        <v>B2</v>
+        <f>IF(ISBLANK($J$2), "", $J$2)</f>
+        <v>A9</v>
       </c>
       <c r="K14" s="14" t="str">
-        <f>IF(ISBLANK($C$3), "", $C$3)</f>
-        <v>B2</v>
+        <f t="shared" ref="K14:M14" si="12">IF(ISBLANK($J$2), "", $J$2)</f>
+        <v>A9</v>
       </c>
       <c r="L14" s="14" t="str">
-        <f>IF(ISBLANK($C$3), "", $C$3)</f>
-        <v>B2</v>
+        <f t="shared" si="12"/>
+        <v>A9</v>
       </c>
       <c r="M14" s="14" t="str">
-        <f>IF(ISBLANK($C$3), "", $C$3)</f>
-        <v>B2</v>
-      </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
+        <f t="shared" si="12"/>
+        <v>A9</v>
+      </c>
+      <c r="N14" s="15" t="str">
+        <f>IF(ISBLANK($D$5), "", $D$5)</f>
+        <v>D3</v>
+      </c>
+      <c r="O14" s="15" t="str">
+        <f>IF(ISBLANK($D$5), "", $D$5)</f>
+        <v>D3</v>
+      </c>
+      <c r="P14" s="15" t="str">
+        <f>IF(ISBLANK($D$5), "", $D$5)</f>
+        <v>D3</v>
+      </c>
+      <c r="Q14" s="15" t="str">
+        <f>IF(ISBLANK($D$5), "", $D$5)</f>
+        <v>D3</v>
+      </c>
+      <c r="R14" s="14" t="str">
+        <f t="shared" ref="R14:U14" si="13">IF(ISBLANK($J$5), "", $J$5)</f>
+        <v>D9</v>
+      </c>
+      <c r="S14" s="14" t="str">
+        <f t="shared" si="13"/>
+        <v>D9</v>
+      </c>
+      <c r="T14" s="14" t="str">
+        <f t="shared" si="13"/>
+        <v>D9</v>
+      </c>
+      <c r="U14" s="14" t="str">
+        <f t="shared" si="13"/>
+        <v>D9</v>
+      </c>
+      <c r="V14" s="15" t="str">
+        <f t="shared" ref="V14:Y14" si="14">IF(ISBLANK($G$4), "", $G$4)</f>
+        <v>C6</v>
+      </c>
+      <c r="W14" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v>C6</v>
+      </c>
+      <c r="X14" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v>C6</v>
+      </c>
+      <c r="Y14" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v>C6</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -1365,47 +1537,83 @@
         <v>A6</v>
       </c>
       <c r="G15" s="15" t="str">
-        <f t="shared" ref="G15:I24" si="6">IF(ISBLANK($G$2), "", $G$2)</f>
+        <f t="shared" ref="G15:I15" si="15">IF(ISBLANK($G$2), "", $G$2)</f>
         <v>A6</v>
       </c>
       <c r="H15" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>A6</v>
       </c>
       <c r="I15" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>A6</v>
       </c>
       <c r="J15" s="14" t="str">
-        <f>IF(ISBLANK($C$4), "", $C$4)</f>
-        <v>C2</v>
+        <f>IF(ISBLANK($J$3), "", $J$3)</f>
+        <v>B9</v>
       </c>
       <c r="K15" s="14" t="str">
-        <f>IF(ISBLANK($C$4), "", $C$4)</f>
-        <v>C2</v>
+        <f t="shared" ref="K15:M15" si="16">IF(ISBLANK($J$3), "", $J$3)</f>
+        <v>B9</v>
       </c>
       <c r="L15" s="14" t="str">
-        <f>IF(ISBLANK($C$4), "", $C$4)</f>
-        <v>C2</v>
+        <f t="shared" si="16"/>
+        <v>B9</v>
       </c>
       <c r="M15" s="14" t="str">
-        <f>IF(ISBLANK($C$4), "", $C$4)</f>
-        <v>C2</v>
-      </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
+        <f t="shared" si="16"/>
+        <v>B9</v>
+      </c>
+      <c r="N15" s="15" t="str">
+        <f t="shared" ref="N15:Q15" si="17">IF(ISBLANK($F$2), "", $F$2)</f>
+        <v>A5</v>
+      </c>
+      <c r="O15" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v>A5</v>
+      </c>
+      <c r="P15" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v>A5</v>
+      </c>
+      <c r="Q15" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v>A5</v>
+      </c>
+      <c r="R15" s="14" t="str">
+        <f t="shared" ref="R15:U15" si="18">IF(ISBLANK($H$5), "", $H$5)</f>
+        <v>D7</v>
+      </c>
+      <c r="S15" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>D7</v>
+      </c>
+      <c r="T15" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>D7</v>
+      </c>
+      <c r="U15" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>D7</v>
+      </c>
+      <c r="V15" s="15" t="str">
+        <f t="shared" ref="V15:Y15" si="19">IF(ISBLANK($H$4), "", $H$4)</f>
+        <v>C7</v>
+      </c>
+      <c r="W15" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v>C7</v>
+      </c>
+      <c r="X15" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v>C7</v>
+      </c>
+      <c r="Y15" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v>C7</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1438,45 +1646,63 @@
         <v>17</v>
       </c>
       <c r="J16" s="14" t="str">
-        <f>IF(ISBLANK($C$5), "", $C$5)</f>
-        <v>D2</v>
+        <f>IF(ISBLANK($J$4), "", $J$4)</f>
+        <v>C9</v>
       </c>
       <c r="K16" s="14" t="s">
         <v>17</v>
       </c>
       <c r="L16" s="14" t="str">
-        <f>IF(ISBLANK($C$5), "", $C$5)</f>
-        <v>D2</v>
+        <f>IF(ISBLANK($J$4), "", $J$4)</f>
+        <v>C9</v>
       </c>
       <c r="M16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="14"/>
+      <c r="N16" s="14" t="str">
+        <f>IF(ISBLANK($J$4), "", $J$4)</f>
+        <v>C9</v>
+      </c>
       <c r="O16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P16" s="14"/>
+      <c r="P16" s="14" t="str">
+        <f>IF(ISBLANK($J$4), "", $J$4)</f>
+        <v>C9</v>
+      </c>
       <c r="Q16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="R16" s="14"/>
+      <c r="R16" s="14" t="str">
+        <f>IF(ISBLANK($J$4), "", $J$4)</f>
+        <v>C9</v>
+      </c>
       <c r="S16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="T16" s="14"/>
+      <c r="T16" s="14" t="str">
+        <f>IF(ISBLANK($J$4), "", $J$4)</f>
+        <v>C9</v>
+      </c>
       <c r="U16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="V16" s="14"/>
+      <c r="V16" s="14" t="str">
+        <f>IF(ISBLANK($J$4), "", $J$4)</f>
+        <v>C9</v>
+      </c>
       <c r="W16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="X16" s="14"/>
+      <c r="X16" s="14" t="str">
+        <f>IF(ISBLANK($J$4), "", $J$4)</f>
+        <v>C9</v>
+      </c>
       <c r="Y16" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1501,47 +1727,71 @@
         <v>B6</v>
       </c>
       <c r="G17" s="15" t="str">
-        <f t="shared" ref="G17:I17" si="7">IF(ISBLANK($G$3), "", $G$3)</f>
+        <f t="shared" ref="G17:I17" si="20">IF(ISBLANK($G$3), "", $G$3)</f>
         <v>B6</v>
       </c>
       <c r="H17" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>B6</v>
       </c>
       <c r="I17" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>B6</v>
       </c>
       <c r="J17" s="14" t="str">
-        <f>IF(ISBLANK($D$2), "", $D$2)</f>
-        <v>A3</v>
+        <f>IF(ISBLANK($J$5), "", $J$5)</f>
+        <v>D9</v>
       </c>
       <c r="K17" s="14" t="str">
-        <f>IF(ISBLANK($D$2), "", $D$2)</f>
-        <v>A3</v>
+        <f t="shared" ref="K17:L17" si="21">IF(ISBLANK($J$5), "", $J$5)</f>
+        <v>D9</v>
       </c>
       <c r="L17" s="14" t="str">
-        <f>IF(ISBLANK($D$2), "", $D$2)</f>
-        <v>A3</v>
+        <f t="shared" si="21"/>
+        <v>D9</v>
       </c>
       <c r="M17" s="14" t="str">
-        <f>IF(ISBLANK($D$2), "", $D$2)</f>
-        <v>A3</v>
-      </c>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
+        <f>IF(ISBLANK($J$5), "", $J$5)</f>
+        <v>D9</v>
+      </c>
+      <c r="N17" s="15" t="str">
+        <f t="shared" ref="N17:Q17" si="22">IF(ISBLANK($F$4), "", $F$4)</f>
+        <v>C5</v>
+      </c>
+      <c r="O17" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>C5</v>
+      </c>
+      <c r="P17" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>C5</v>
+      </c>
+      <c r="Q17" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>C5</v>
+      </c>
+      <c r="R17" s="14" t="str">
+        <f t="shared" ref="R17:U17" si="23">IF(ISBLANK($J$3), "", $J$3)</f>
+        <v>B9</v>
+      </c>
+      <c r="S17" s="14" t="str">
+        <f t="shared" si="23"/>
+        <v>B9</v>
+      </c>
+      <c r="T17" s="14" t="str">
+        <f t="shared" si="23"/>
+        <v>B9</v>
+      </c>
+      <c r="U17" s="14" t="str">
+        <f t="shared" si="23"/>
+        <v>B9</v>
+      </c>
       <c r="V17" s="14"/>
       <c r="W17" s="14"/>
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
     </row>
-    <row r="18" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -1566,47 +1816,83 @@
         <v>C6</v>
       </c>
       <c r="G18" s="15" t="str">
-        <f t="shared" ref="G18:I18" si="8">IF(ISBLANK($G$4), "", $G$4)</f>
+        <f t="shared" ref="G18:I18" si="24">IF(ISBLANK($G$4), "", $G$4)</f>
         <v>C6</v>
       </c>
       <c r="H18" s="15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>C6</v>
       </c>
       <c r="I18" s="15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>C6</v>
       </c>
       <c r="J18" s="14" t="str">
-        <f>IF(ISBLANK($D$3), "", $D$3)</f>
-        <v>B3</v>
+        <f>IF(ISBLANK($K$2), "", $K$2)</f>
+        <v>A10</v>
       </c>
       <c r="K18" s="14" t="str">
-        <f>IF(ISBLANK($D$3), "", $D$3)</f>
-        <v>B3</v>
+        <f t="shared" ref="K18:L18" si="25">IF(ISBLANK($K$2), "", $K$2)</f>
+        <v>A10</v>
       </c>
       <c r="L18" s="14" t="str">
-        <f>IF(ISBLANK($D$3), "", $D$3)</f>
-        <v>B3</v>
+        <f t="shared" si="25"/>
+        <v>A10</v>
       </c>
       <c r="M18" s="14" t="str">
-        <f>IF(ISBLANK($D$3), "", $D$3)</f>
-        <v>B3</v>
-      </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
+        <f>IF(ISBLANK($K$2), "", $K$2)</f>
+        <v>A10</v>
+      </c>
+      <c r="N18" s="15" t="str">
+        <f t="shared" ref="N18:Q18" si="26">IF(ISBLANK($G$3), "", $G$3)</f>
+        <v>B6</v>
+      </c>
+      <c r="O18" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v>B6</v>
+      </c>
+      <c r="P18" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v>B6</v>
+      </c>
+      <c r="Q18" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v>B6</v>
+      </c>
+      <c r="R18" s="15" t="str">
+        <f t="shared" ref="R18:U18" si="27">IF(ISBLANK($G$5), "", $G$5)</f>
+        <v>D6</v>
+      </c>
+      <c r="S18" s="15" t="str">
+        <f t="shared" si="27"/>
+        <v>D6</v>
+      </c>
+      <c r="T18" s="15" t="str">
+        <f t="shared" si="27"/>
+        <v>D6</v>
+      </c>
+      <c r="U18" s="15" t="str">
+        <f t="shared" si="27"/>
+        <v>D6</v>
+      </c>
+      <c r="V18" s="15" t="str">
+        <f t="shared" ref="V18:Y18" si="28">IF(ISBLANK($E$3), "", $E$3)</f>
+        <v>B4</v>
+      </c>
+      <c r="W18" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v>B4</v>
+      </c>
+      <c r="X18" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v>B4</v>
+      </c>
+      <c r="Y18" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v>B4</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
@@ -1639,45 +1925,63 @@
         <v>17</v>
       </c>
       <c r="J19" s="14" t="str">
-        <f>IF(ISBLANK($D$4), "", $D$4)</f>
-        <v>C3</v>
+        <f>IF(ISBLANK($K$3), "", $K$3)</f>
+        <v>B10</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>17</v>
       </c>
       <c r="L19" s="14" t="str">
-        <f>IF(ISBLANK($D$4), "", $D$4)</f>
-        <v>C3</v>
+        <f>IF(ISBLANK($K$3), "", $K$3)</f>
+        <v>B10</v>
       </c>
       <c r="M19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N19" s="14"/>
+      <c r="N19" s="14" t="str">
+        <f>IF(ISBLANK($K$3), "", $K$3)</f>
+        <v>B10</v>
+      </c>
       <c r="O19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P19" s="14"/>
+      <c r="P19" s="14" t="str">
+        <f>IF(ISBLANK($K$3), "", $K$3)</f>
+        <v>B10</v>
+      </c>
       <c r="Q19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="R19" s="14"/>
+      <c r="R19" s="15" t="str">
+        <f t="shared" ref="R19" si="29">IF(ISBLANK($H$2), "", $H$2)</f>
+        <v>A7</v>
+      </c>
       <c r="S19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="T19" s="14"/>
+      <c r="T19" s="15" t="str">
+        <f t="shared" ref="T19" si="30">IF(ISBLANK($H$2), "", $H$2)</f>
+        <v>A7</v>
+      </c>
       <c r="U19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="V19" s="14"/>
+      <c r="V19" s="15" t="str">
+        <f t="shared" ref="V19" si="31">IF(ISBLANK($H$2), "", $H$2)</f>
+        <v>A7</v>
+      </c>
       <c r="W19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="X19" s="14"/>
+      <c r="X19" s="15" t="str">
+        <f t="shared" ref="X19" si="32">IF(ISBLANK($H$2), "", $H$2)</f>
+        <v>A7</v>
+      </c>
       <c r="Y19" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
@@ -1702,11 +2006,11 @@
         <v>D6</v>
       </c>
       <c r="G20" s="15" t="str">
-        <f t="shared" ref="G20:I20" si="9">IF(ISBLANK($G$5), "", $G$5)</f>
+        <f t="shared" ref="G20:H20" si="33">IF(ISBLANK($G$5), "", $G$5)</f>
         <v>D6</v>
       </c>
       <c r="H20" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>D6</v>
       </c>
       <c r="I20" s="15" t="str">
@@ -1714,35 +2018,71 @@
         <v>D6</v>
       </c>
       <c r="J20" s="14" t="str">
-        <f>IF(ISBLANK($D$5), "", $D$5)</f>
-        <v>D3</v>
+        <f>IF(ISBLANK($K$4), "", $K$4)</f>
+        <v>C10</v>
       </c>
       <c r="K20" s="14" t="str">
-        <f>IF(ISBLANK($D$5), "", $D$5)</f>
-        <v>D3</v>
+        <f t="shared" ref="K20:M20" si="34">IF(ISBLANK($K$4), "", $K$4)</f>
+        <v>C10</v>
       </c>
       <c r="L20" s="14" t="str">
-        <f>IF(ISBLANK($D$5), "", $D$5)</f>
-        <v>D3</v>
+        <f t="shared" si="34"/>
+        <v>C10</v>
       </c>
       <c r="M20" s="14" t="str">
-        <f>IF(ISBLANK($D$5), "", $D$5)</f>
-        <v>D3</v>
-      </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
+        <f t="shared" si="34"/>
+        <v>C10</v>
+      </c>
+      <c r="N20" s="15" t="str">
+        <f t="shared" ref="N20:Q20" si="35">IF(ISBLANK($G$2), "", $G$2)</f>
+        <v>A6</v>
+      </c>
+      <c r="O20" s="15" t="str">
+        <f t="shared" si="35"/>
+        <v>A6</v>
+      </c>
+      <c r="P20" s="15" t="str">
+        <f t="shared" si="35"/>
+        <v>A6</v>
+      </c>
+      <c r="Q20" s="15" t="str">
+        <f t="shared" si="35"/>
+        <v>A6</v>
+      </c>
+      <c r="R20" s="15" t="str">
+        <f t="shared" ref="R20:U20" si="36">IF(ISBLANK($H$3), "", $H$3)</f>
+        <v>B7</v>
+      </c>
+      <c r="S20" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>B7</v>
+      </c>
+      <c r="T20" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>B7</v>
+      </c>
+      <c r="U20" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>B7</v>
+      </c>
+      <c r="V20" s="14" t="str">
+        <f>IF(ISBLANK($J$2), "", $J$2)</f>
+        <v>A9</v>
+      </c>
+      <c r="W20" s="14" t="str">
+        <f t="shared" ref="W20:Y20" si="37">IF(ISBLANK($J$2), "", $J$2)</f>
+        <v>A9</v>
+      </c>
+      <c r="X20" s="14" t="str">
+        <f t="shared" si="37"/>
+        <v>A9</v>
+      </c>
+      <c r="Y20" s="14" t="str">
+        <f t="shared" si="37"/>
+        <v>A9</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1767,47 +2107,83 @@
         <v>A7</v>
       </c>
       <c r="G21" s="15" t="str">
-        <f t="shared" ref="G21:I21" si="10">IF(ISBLANK($H$2), "", $H$2)</f>
+        <f t="shared" ref="G21:I21" si="38">IF(ISBLANK($H$2), "", $H$2)</f>
         <v>A7</v>
       </c>
       <c r="H21" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>A7</v>
       </c>
       <c r="I21" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>A7</v>
       </c>
       <c r="J21" s="14" t="str">
-        <f>IF(ISBLANK($E$2), "", $E$2)</f>
-        <v>A4</v>
+        <f>IF(ISBLANK($K$5), "", $K$5)</f>
+        <v>D10</v>
       </c>
       <c r="K21" s="14" t="str">
-        <f>IF(ISBLANK($E$2), "", $E$2)</f>
-        <v>A4</v>
+        <f t="shared" ref="K21:M21" si="39">IF(ISBLANK($K$5), "", $K$5)</f>
+        <v>D10</v>
       </c>
       <c r="L21" s="14" t="str">
-        <f>IF(ISBLANK($E$2), "", $E$2)</f>
-        <v>A4</v>
+        <f t="shared" si="39"/>
+        <v>D10</v>
       </c>
       <c r="M21" s="14" t="str">
-        <f>IF(ISBLANK($E$2), "", $E$2)</f>
-        <v>A4</v>
-      </c>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
+        <f t="shared" si="39"/>
+        <v>D10</v>
+      </c>
+      <c r="N21" s="14" t="str">
+        <f>IF(ISBLANK($I$3), "", $I$3)</f>
+        <v>B8</v>
+      </c>
+      <c r="O21" s="14" t="str">
+        <f t="shared" ref="O21:Q21" si="40">IF(ISBLANK($I$3), "", $I$3)</f>
+        <v>B8</v>
+      </c>
+      <c r="P21" s="14" t="str">
+        <f t="shared" si="40"/>
+        <v>B8</v>
+      </c>
+      <c r="Q21" s="14" t="str">
+        <f t="shared" si="40"/>
+        <v>B8</v>
+      </c>
+      <c r="R21" s="14" t="str">
+        <f t="shared" ref="R21:U21" si="41">IF(ISBLANK($I$5), "", $I$5)</f>
+        <v>D8</v>
+      </c>
+      <c r="S21" s="14" t="str">
+        <f t="shared" si="41"/>
+        <v>D8</v>
+      </c>
+      <c r="T21" s="14" t="str">
+        <f t="shared" si="41"/>
+        <v>D8</v>
+      </c>
+      <c r="U21" s="14" t="str">
+        <f t="shared" si="41"/>
+        <v>D8</v>
+      </c>
+      <c r="V21" s="14" t="str">
+        <f>IF(ISBLANK($K$5), "", $K$5)</f>
+        <v>D10</v>
+      </c>
+      <c r="W21" s="14" t="str">
+        <f t="shared" ref="W21:Y21" si="42">IF(ISBLANK($K$5), "", $K$5)</f>
+        <v>D10</v>
+      </c>
+      <c r="X21" s="14" t="str">
+        <f t="shared" si="42"/>
+        <v>D10</v>
+      </c>
+      <c r="Y21" s="14" t="str">
+        <f t="shared" si="42"/>
+        <v>D10</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -1839,46 +2215,64 @@
       <c r="I22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="14" t="str">
-        <f>IF(ISBLANK($E$3), "", $E$3)</f>
-        <v>B4</v>
+      <c r="J22" s="15" t="str">
+        <f>IF(ISBLANK($C$2), "", $C$2)</f>
+        <v>A2</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="14" t="str">
-        <f>IF(ISBLANK($E$3), "", $E$3)</f>
-        <v>B4</v>
+      <c r="L22" s="15" t="str">
+        <f>IF(ISBLANK($C$2), "", $C$2)</f>
+        <v>A2</v>
       </c>
       <c r="M22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="14"/>
+      <c r="N22" s="15" t="str">
+        <f>IF(ISBLANK($C$2), "", $C$2)</f>
+        <v>A2</v>
+      </c>
       <c r="O22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P22" s="14"/>
+      <c r="P22" s="15" t="str">
+        <f>IF(ISBLANK($C$2), "", $C$2)</f>
+        <v>A2</v>
+      </c>
       <c r="Q22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="R22" s="14"/>
+      <c r="R22" s="14" t="str">
+        <f>IF(ISBLANK($K$4), "", $K$4)</f>
+        <v>C10</v>
+      </c>
       <c r="S22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="T22" s="14"/>
+      <c r="T22" s="14" t="str">
+        <f>IF(ISBLANK($K$4), "", $K$4)</f>
+        <v>C10</v>
+      </c>
       <c r="U22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="14"/>
+      <c r="V22" s="14" t="str">
+        <f>IF(ISBLANK($K$4), "", $K$4)</f>
+        <v>C10</v>
+      </c>
       <c r="W22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="X22" s="14"/>
+      <c r="X22" s="14" t="str">
+        <f>IF(ISBLANK($K$4), "", $K$4)</f>
+        <v>C10</v>
+      </c>
       <c r="Y22" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
@@ -1903,47 +2297,83 @@
         <v>B7</v>
       </c>
       <c r="G23" s="15" t="str">
-        <f t="shared" ref="G23:I23" si="11">IF(ISBLANK($H$3), "", $H$3)</f>
+        <f t="shared" ref="G23:I23" si="43">IF(ISBLANK($H$3), "", $H$3)</f>
         <v>B7</v>
       </c>
       <c r="H23" s="15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="43"/>
         <v>B7</v>
       </c>
       <c r="I23" s="15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="43"/>
         <v>B7</v>
       </c>
-      <c r="J23" s="14" t="str">
-        <f>IF(ISBLANK($E$4), "", $E$4)</f>
-        <v>C4</v>
-      </c>
-      <c r="K23" s="14" t="str">
-        <f>IF(ISBLANK($E$4), "", $E$4)</f>
-        <v>C4</v>
-      </c>
-      <c r="L23" s="14" t="str">
-        <f>IF(ISBLANK($E$4), "", $E$4)</f>
-        <v>C4</v>
-      </c>
-      <c r="M23" s="14" t="str">
-        <f>IF(ISBLANK($E$4), "", $E$4)</f>
-        <v>C4</v>
-      </c>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
+      <c r="J23" s="15" t="str">
+        <f t="shared" ref="J23:M23" si="44">IF(ISBLANK($D$4), "", $D$4)</f>
+        <v>C3</v>
+      </c>
+      <c r="K23" s="15" t="str">
+        <f t="shared" si="44"/>
+        <v>C3</v>
+      </c>
+      <c r="L23" s="15" t="str">
+        <f t="shared" si="44"/>
+        <v>C3</v>
+      </c>
+      <c r="M23" s="15" t="str">
+        <f t="shared" si="44"/>
+        <v>C3</v>
+      </c>
+      <c r="N23" s="15" t="str">
+        <f>IF(ISBLANK($E$5), "", $E$5)</f>
+        <v>D4</v>
+      </c>
+      <c r="O23" s="15" t="str">
+        <f>IF(ISBLANK($E$5), "", $E$5)</f>
+        <v>D4</v>
+      </c>
+      <c r="P23" s="15" t="str">
+        <f>IF(ISBLANK($E$5), "", $E$5)</f>
+        <v>D4</v>
+      </c>
+      <c r="Q23" s="15" t="str">
+        <f>IF(ISBLANK($E$5), "", $E$5)</f>
+        <v>D4</v>
+      </c>
+      <c r="R23" s="15" t="str">
+        <f t="shared" ref="R23:U23" si="45">IF(ISBLANK($F$5), "", $F$5)</f>
+        <v>D5</v>
+      </c>
+      <c r="S23" s="15" t="str">
+        <f t="shared" si="45"/>
+        <v>D5</v>
+      </c>
+      <c r="T23" s="15" t="str">
+        <f t="shared" si="45"/>
+        <v>D5</v>
+      </c>
+      <c r="U23" s="15" t="str">
+        <f t="shared" si="45"/>
+        <v>D5</v>
+      </c>
+      <c r="V23" s="15" t="str">
+        <f>IF(ISBLANK($E$2), "", $E$2)</f>
+        <v>A4</v>
+      </c>
+      <c r="W23" s="15" t="str">
+        <f>IF(ISBLANK($E$2), "", $E$2)</f>
+        <v>A4</v>
+      </c>
+      <c r="X23" s="15" t="str">
+        <f>IF(ISBLANK($E$2), "", $E$2)</f>
+        <v>A4</v>
+      </c>
+      <c r="Y23" s="15" t="str">
+        <f>IF(ISBLANK($E$2), "", $E$2)</f>
+        <v>A4</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
@@ -1968,54 +2398,80 @@
         <v>C7</v>
       </c>
       <c r="G24" s="15" t="str">
-        <f t="shared" ref="G24:I24" si="12">IF(ISBLANK($H$4), "", $H$4)</f>
+        <f t="shared" ref="G24:H24" si="46">IF(ISBLANK($H$4), "", $H$4)</f>
         <v>C7</v>
       </c>
       <c r="H24" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="46"/>
         <v>C7</v>
       </c>
       <c r="I24" s="15" t="str">
         <f>IF(ISBLANK($H$4), "", $H$4)</f>
         <v>C7</v>
       </c>
-      <c r="J24" s="14" t="str">
-        <f>IF(ISBLANK($E$5), "", $E$5)</f>
-        <v>D4</v>
-      </c>
-      <c r="K24" s="14" t="str">
-        <f>IF(ISBLANK($E$5), "", $E$5)</f>
-        <v>D4</v>
-      </c>
-      <c r="L24" s="14" t="str">
-        <f>IF(ISBLANK($E$5), "", $E$5)</f>
-        <v>D4</v>
-      </c>
-      <c r="M24" s="14" t="str">
-        <f>IF(ISBLANK($E$5), "", $E$5)</f>
-        <v>D4</v>
-      </c>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H29" s="4">
-        <f>10000/25</f>
-        <v>400</v>
-      </c>
-      <c r="I29" s="4">
-        <f>10000/40</f>
-        <v>250</v>
+      <c r="J24" s="15" t="str">
+        <f t="shared" ref="J24:M24" si="47">IF(ISBLANK($F$3), "", $F$3)</f>
+        <v>B5</v>
+      </c>
+      <c r="K24" s="15" t="str">
+        <f t="shared" si="47"/>
+        <v>B5</v>
+      </c>
+      <c r="L24" s="15" t="str">
+        <f t="shared" si="47"/>
+        <v>B5</v>
+      </c>
+      <c r="M24" s="15" t="str">
+        <f t="shared" si="47"/>
+        <v>B5</v>
+      </c>
+      <c r="N24" s="15" t="str">
+        <f>IF(ISBLANK($C$4), "", $C$4)</f>
+        <v>C2</v>
+      </c>
+      <c r="O24" s="15" t="str">
+        <f>IF(ISBLANK($C$4), "", $C$4)</f>
+        <v>C2</v>
+      </c>
+      <c r="P24" s="15" t="str">
+        <f>IF(ISBLANK($C$4), "", $C$4)</f>
+        <v>C2</v>
+      </c>
+      <c r="Q24" s="15" t="str">
+        <f>IF(ISBLANK($C$4), "", $C$4)</f>
+        <v>C2</v>
+      </c>
+      <c r="R24" s="15" t="str">
+        <f>IF(ISBLANK($D$3), "", $D$3)</f>
+        <v>B3</v>
+      </c>
+      <c r="S24" s="15" t="str">
+        <f>IF(ISBLANK($D$3), "", $D$3)</f>
+        <v>B3</v>
+      </c>
+      <c r="T24" s="15" t="str">
+        <f>IF(ISBLANK($D$3), "", $D$3)</f>
+        <v>B3</v>
+      </c>
+      <c r="U24" s="15" t="str">
+        <f>IF(ISBLANK($D$3), "", $D$3)</f>
+        <v>B3</v>
+      </c>
+      <c r="V24" s="15" t="str">
+        <f>IF(ISBLANK($B$2), "", $B$2)</f>
+        <v>A1</v>
+      </c>
+      <c r="W24" s="15" t="str">
+        <f t="shared" ref="W24:Y24" si="48">IF(ISBLANK($B$2), "", $B$2)</f>
+        <v>A1</v>
+      </c>
+      <c r="X24" s="15" t="str">
+        <f t="shared" si="48"/>
+        <v>A1</v>
+      </c>
+      <c r="Y24" s="15" t="str">
+        <f t="shared" si="48"/>
+        <v>A1</v>
       </c>
     </row>
   </sheetData>

--- a/maldi_plate_template.xlsx
+++ b/maldi_plate_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chase\Documents\GitHub\IDBac_R01_Protocols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061BB2B7-9808-4FDC-8C9E-B29C5240AC61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434D3E59-55A2-4C42-B9D4-BBD985AC107F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -266,15 +266,19 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,7 +564,7 @@
   <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +585,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -596,10 +600,10 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="11"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
@@ -615,7 +619,7 @@
       <c r="P3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="9"/>
+      <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
@@ -720,99 +724,99 @@
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="12" t="str">
+      <c r="B9" s="10" t="str">
         <f>IF(ISBLANK($B$2), "", $B$2)</f>
         <v/>
       </c>
-      <c r="C9" s="12" t="str">
+      <c r="C9" s="10" t="str">
         <f t="shared" ref="C9:E9" si="0">IF(ISBLANK($B$2), "", $B$2)</f>
         <v/>
       </c>
-      <c r="D9" s="12" t="str">
+      <c r="D9" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E9" s="12" t="str">
+      <c r="E9" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F9" s="12" t="str">
+      <c r="F9" s="10" t="str">
         <f>IF(ISBLANK($F$2), "", $F$2)</f>
         <v/>
       </c>
-      <c r="G9" s="12" t="str">
+      <c r="G9" s="10" t="str">
         <f t="shared" ref="G9:I9" si="1">IF(ISBLANK($F$2), "", $F$2)</f>
         <v/>
       </c>
-      <c r="H9" s="12" t="str">
+      <c r="H9" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I9" s="12" t="str">
+      <c r="I9" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J9" s="12" t="str">
+      <c r="J9" s="10" t="str">
         <f>IF(ISBLANK($H$5), "", $H$5)</f>
         <v/>
       </c>
-      <c r="K9" s="12" t="str">
+      <c r="K9" s="10" t="str">
         <f t="shared" ref="K9:M9" si="2">IF(ISBLANK($H$5), "", $H$5)</f>
         <v/>
       </c>
-      <c r="L9" s="12" t="str">
+      <c r="L9" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="12" t="str">
+      <c r="M9" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="12" t="str">
+      <c r="N9" s="10" t="str">
         <f>IF(ISBLANK($B$4), "", $B$4)</f>
         <v/>
       </c>
-      <c r="O9" s="12" t="str">
+      <c r="O9" s="10" t="str">
         <f>IF(ISBLANK($B$4), "", $B$4)</f>
         <v/>
       </c>
-      <c r="P9" s="12" t="str">
+      <c r="P9" s="10" t="str">
         <f>IF(ISBLANK($B$4), "", $B$4)</f>
         <v/>
       </c>
-      <c r="Q9" s="12" t="str">
+      <c r="Q9" s="10" t="str">
         <f>IF(ISBLANK($B$4), "", $B$4)</f>
         <v/>
       </c>
-      <c r="R9" s="12" t="str">
+      <c r="R9" s="10" t="str">
         <f>IF(ISBLANK($K$2), "", $K$2)</f>
         <v/>
       </c>
-      <c r="S9" s="12" t="str">
+      <c r="S9" s="10" t="str">
         <f t="shared" ref="S9:T9" si="3">IF(ISBLANK($K$2), "", $K$2)</f>
         <v/>
       </c>
-      <c r="T9" s="12" t="str">
+      <c r="T9" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="U9" s="12" t="str">
+      <c r="U9" s="10" t="str">
         <f>IF(ISBLANK($K$2), "", $K$2)</f>
         <v/>
       </c>
-      <c r="V9" s="12" t="str">
+      <c r="V9" s="10" t="str">
         <f>IF(ISBLANK($B$5), "", $B$5)</f>
         <v/>
       </c>
-      <c r="W9" s="12" t="str">
+      <c r="W9" s="10" t="str">
         <f>IF(ISBLANK($B$5), "", $B$5)</f>
         <v/>
       </c>
-      <c r="X9" s="12" t="str">
+      <c r="X9" s="10" t="str">
         <f>IF(ISBLANK($B$5), "", $B$5)</f>
         <v/>
       </c>
-      <c r="Y9" s="12" t="str">
+      <c r="Y9" s="10" t="str">
         <f>IF(ISBLANK($B$5), "", $B$5)</f>
         <v/>
       </c>
@@ -821,164 +825,164 @@
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="12" t="str">
+      <c r="B10" s="10" t="str">
         <f>IF(ISBLANK($B$3), "", $B$3)</f>
         <v/>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="12" t="str">
+      <c r="C10" s="12"/>
+      <c r="D10" s="10" t="str">
         <f>IF(ISBLANK($B$3), "", $B$3)</f>
         <v/>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="12" t="str">
+      <c r="E10" s="12"/>
+      <c r="F10" s="10" t="str">
         <f>IF(ISBLANK($B$3), "", $B$3)</f>
         <v/>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="12" t="str">
+      <c r="G10" s="12"/>
+      <c r="H10" s="10" t="str">
         <f>IF(ISBLANK($B$3), "", $B$3)</f>
         <v/>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="12" t="str">
+      <c r="I10" s="12"/>
+      <c r="J10" s="10" t="str">
         <f>IF(ISBLANK($I$2), "", $I$2)</f>
         <v/>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="12" t="str">
+      <c r="K10" s="12"/>
+      <c r="L10" s="10" t="str">
         <f>IF(ISBLANK($I$2), "", $I$2)</f>
         <v/>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="12" t="str">
+      <c r="M10" s="12"/>
+      <c r="N10" s="10" t="str">
         <f>IF(ISBLANK($I$2), "", $I$2)</f>
         <v/>
       </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="12" t="str">
+      <c r="O10" s="12"/>
+      <c r="P10" s="10" t="str">
         <f>IF(ISBLANK($I$2), "", $I$2)</f>
         <v/>
       </c>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="12" t="str">
+      <c r="Q10" s="12"/>
+      <c r="R10" s="10" t="str">
         <f>IF(ISBLANK($I$2), "", $I$2)</f>
         <v/>
       </c>
-      <c r="S10" s="14"/>
-      <c r="T10" s="12" t="str">
+      <c r="S10" s="12"/>
+      <c r="T10" s="10" t="str">
         <f>IF(ISBLANK($I$2), "", $I$2)</f>
         <v/>
       </c>
-      <c r="U10" s="14"/>
-      <c r="V10" s="12" t="str">
+      <c r="U10" s="12"/>
+      <c r="V10" s="10" t="str">
         <f>IF(ISBLANK($I$2), "", $I$2)</f>
         <v/>
       </c>
-      <c r="W10" s="14"/>
-      <c r="X10" s="12" t="str">
+      <c r="W10" s="12"/>
+      <c r="X10" s="10" t="str">
         <f>IF(ISBLANK($I$2), "", $I$2)</f>
         <v/>
       </c>
-      <c r="Y10" s="14"/>
+      <c r="Y10" s="12"/>
     </row>
     <row r="11" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="12" t="str">
+      <c r="B11" s="10" t="str">
         <f>IF(ISBLANK($B$4), "", $B$4)</f>
         <v/>
       </c>
-      <c r="C11" s="12" t="str">
+      <c r="C11" s="10" t="str">
         <f>IF(ISBLANK($B$4), "", $B$4)</f>
         <v/>
       </c>
-      <c r="D11" s="12" t="str">
+      <c r="D11" s="10" t="str">
         <f>IF(ISBLANK($B$4), "", $B$4)</f>
         <v/>
       </c>
-      <c r="E11" s="12" t="str">
+      <c r="E11" s="10" t="str">
         <f>IF(ISBLANK($B$4), "", $B$4)</f>
         <v/>
       </c>
-      <c r="F11" s="12" t="str">
+      <c r="F11" s="10" t="str">
         <f>IF(ISBLANK($F$3), "", $F$3)</f>
         <v/>
       </c>
-      <c r="G11" s="12" t="str">
+      <c r="G11" s="10" t="str">
         <f t="shared" ref="G11:I11" si="4">IF(ISBLANK($F$3), "", $F$3)</f>
         <v/>
       </c>
-      <c r="H11" s="12" t="str">
+      <c r="H11" s="10" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I11" s="12" t="str">
+      <c r="I11" s="10" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J11" s="12" t="str">
+      <c r="J11" s="10" t="str">
         <f>IF(ISBLANK($I$3), "", $I$3)</f>
         <v/>
       </c>
-      <c r="K11" s="12" t="str">
+      <c r="K11" s="10" t="str">
         <f t="shared" ref="K11:M11" si="5">IF(ISBLANK($I$3), "", $I$3)</f>
         <v/>
       </c>
-      <c r="L11" s="12" t="str">
+      <c r="L11" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M11" s="12" t="str">
+      <c r="M11" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N11" s="12" t="str">
+      <c r="N11" s="10" t="str">
         <f t="shared" ref="N11:Q11" si="6">IF(ISBLANK($B$3), "", $B$3)</f>
         <v/>
       </c>
-      <c r="O11" s="12" t="str">
+      <c r="O11" s="10" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P11" s="12" t="str">
+      <c r="P11" s="10" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q11" s="12" t="str">
+      <c r="Q11" s="10" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R11" s="12" t="str">
+      <c r="R11" s="10" t="str">
         <f>IF(ISBLANK($D$2), "", $D$2)</f>
         <v/>
       </c>
-      <c r="S11" s="12" t="str">
+      <c r="S11" s="10" t="str">
         <f>IF(ISBLANK($D$2), "", $D$2)</f>
         <v/>
       </c>
-      <c r="T11" s="12" t="str">
+      <c r="T11" s="10" t="str">
         <f>IF(ISBLANK($D$2), "", $D$2)</f>
         <v/>
       </c>
-      <c r="U11" s="12" t="str">
+      <c r="U11" s="10" t="str">
         <f>IF(ISBLANK($D$2), "", $D$2)</f>
         <v/>
       </c>
-      <c r="V11" s="12" t="str">
+      <c r="V11" s="10" t="str">
         <f>IF(ISBLANK($E$4), "", $E$4)</f>
         <v/>
       </c>
-      <c r="W11" s="12" t="str">
+      <c r="W11" s="10" t="str">
         <f>IF(ISBLANK($E$4), "", $E$4)</f>
         <v/>
       </c>
-      <c r="X11" s="12" t="str">
+      <c r="X11" s="10" t="str">
         <f>IF(ISBLANK($E$4), "", $E$4)</f>
         <v/>
       </c>
-      <c r="Y11" s="12" t="str">
+      <c r="Y11" s="10" t="str">
         <f>IF(ISBLANK($E$4), "", $E$4)</f>
         <v/>
       </c>
@@ -987,99 +991,99 @@
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="12" t="str">
+      <c r="B12" s="10" t="str">
         <f>IF(ISBLANK($B$5), "", $B$5)</f>
         <v/>
       </c>
-      <c r="C12" s="12" t="str">
+      <c r="C12" s="10" t="str">
         <f>IF(ISBLANK($B$5), "", $B$5)</f>
         <v/>
       </c>
-      <c r="D12" s="12" t="str">
+      <c r="D12" s="10" t="str">
         <f>IF(ISBLANK($B$5), "", $B$5)</f>
         <v/>
       </c>
-      <c r="E12" s="12" t="str">
+      <c r="E12" s="10" t="str">
         <f>IF(ISBLANK($B$5), "", $B$5)</f>
         <v/>
       </c>
-      <c r="F12" s="12" t="str">
+      <c r="F12" s="10" t="str">
         <f>IF(ISBLANK($F$4), "", $F$4)</f>
         <v/>
       </c>
-      <c r="G12" s="12" t="str">
+      <c r="G12" s="10" t="str">
         <f t="shared" ref="G12:I12" si="7">IF(ISBLANK($F$4), "", $F$4)</f>
         <v/>
       </c>
-      <c r="H12" s="12" t="str">
+      <c r="H12" s="10" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I12" s="12" t="str">
+      <c r="I12" s="10" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J12" s="12" t="str">
+      <c r="J12" s="10" t="str">
         <f>IF(ISBLANK($I$4), "", $I$4)</f>
         <v/>
       </c>
-      <c r="K12" s="12" t="str">
+      <c r="K12" s="10" t="str">
         <f t="shared" ref="K12:M12" si="8">IF(ISBLANK($I$4), "", $I$4)</f>
         <v/>
       </c>
-      <c r="L12" s="12" t="str">
+      <c r="L12" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M12" s="12" t="str">
+      <c r="M12" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N12" s="12" t="str">
+      <c r="N12" s="10" t="str">
         <f>IF(ISBLANK($C$3), "", $C$3)</f>
         <v/>
       </c>
-      <c r="O12" s="12" t="str">
+      <c r="O12" s="10" t="str">
         <f>IF(ISBLANK($C$3), "", $C$3)</f>
         <v/>
       </c>
-      <c r="P12" s="12" t="str">
+      <c r="P12" s="10" t="str">
         <f>IF(ISBLANK($C$3), "", $C$3)</f>
         <v/>
       </c>
-      <c r="Q12" s="12" t="str">
+      <c r="Q12" s="10" t="str">
         <f>IF(ISBLANK($C$3), "", $C$3)</f>
         <v/>
       </c>
-      <c r="R12" s="12" t="str">
+      <c r="R12" s="10" t="str">
         <f t="shared" ref="R12:U12" si="9">IF(ISBLANK($C$5), "", $C$5)</f>
         <v/>
       </c>
-      <c r="S12" s="12" t="str">
+      <c r="S12" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T12" s="12" t="str">
+      <c r="T12" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U12" s="12" t="str">
+      <c r="U12" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="V12" s="12" t="str">
+      <c r="V12" s="10" t="str">
         <f>IF(ISBLANK($I$4), "", $I$4)</f>
         <v/>
       </c>
-      <c r="W12" s="12" t="str">
+      <c r="W12" s="10" t="str">
         <f t="shared" ref="W12:Y12" si="10">IF(ISBLANK($I$4), "", $I$4)</f>
         <v/>
       </c>
-      <c r="X12" s="12" t="str">
+      <c r="X12" s="10" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y12" s="12" t="str">
+      <c r="Y12" s="10" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -1088,164 +1092,164 @@
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="12" t="str">
+      <c r="B13" s="10" t="str">
         <f>IF(ISBLANK($C$2), "", $C$2)</f>
         <v/>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="12" t="str">
+      <c r="C13" s="12"/>
+      <c r="D13" s="10" t="str">
         <f>IF(ISBLANK($C$2), "", $C$2)</f>
         <v/>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="12" t="str">
+      <c r="E13" s="12"/>
+      <c r="F13" s="10" t="str">
         <f>IF(ISBLANK($C$2), "", $C$2)</f>
         <v/>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="12" t="str">
+      <c r="G13" s="12"/>
+      <c r="H13" s="10" t="str">
         <f>IF(ISBLANK($C$2), "", $C$2)</f>
         <v/>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="12" t="str">
+      <c r="I13" s="12"/>
+      <c r="J13" s="10" t="str">
         <f>IF(ISBLANK($I$5), "", $I$5)</f>
         <v/>
       </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="12" t="str">
+      <c r="K13" s="12"/>
+      <c r="L13" s="10" t="str">
         <f>IF(ISBLANK($I$5), "", $I$5)</f>
         <v/>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="12" t="str">
+      <c r="M13" s="12"/>
+      <c r="N13" s="10" t="str">
         <f>IF(ISBLANK($I$5), "", $I$5)</f>
         <v/>
       </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="12" t="str">
+      <c r="O13" s="12"/>
+      <c r="P13" s="10" t="str">
         <f>IF(ISBLANK($I$5), "", $I$5)</f>
         <v/>
       </c>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="12" t="str">
+      <c r="Q13" s="12"/>
+      <c r="R13" s="10" t="str">
         <f>IF(ISBLANK($K$3), "", $K$3)</f>
         <v/>
       </c>
-      <c r="S13" s="14"/>
-      <c r="T13" s="12" t="str">
+      <c r="S13" s="12"/>
+      <c r="T13" s="10" t="str">
         <f>IF(ISBLANK($K$3), "", $K$3)</f>
         <v/>
       </c>
-      <c r="U13" s="14"/>
-      <c r="V13" s="12" t="str">
+      <c r="U13" s="12"/>
+      <c r="V13" s="10" t="str">
         <f>IF(ISBLANK($K$3), "", $K$3)</f>
         <v/>
       </c>
-      <c r="W13" s="14"/>
-      <c r="X13" s="12" t="str">
+      <c r="W13" s="12"/>
+      <c r="X13" s="10" t="str">
         <f>IF(ISBLANK($K$3), "", $K$3)</f>
         <v/>
       </c>
-      <c r="Y13" s="14"/>
+      <c r="Y13" s="12"/>
     </row>
     <row r="14" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="12" t="str">
+      <c r="B14" s="10" t="str">
         <f>IF(ISBLANK($C$3), "", $C$3)</f>
         <v/>
       </c>
-      <c r="C14" s="12" t="str">
+      <c r="C14" s="10" t="str">
         <f>IF(ISBLANK($C$3), "", $C$3)</f>
         <v/>
       </c>
-      <c r="D14" s="12" t="str">
+      <c r="D14" s="10" t="str">
         <f>IF(ISBLANK($C$3), "", $C$3)</f>
         <v/>
       </c>
-      <c r="E14" s="12" t="str">
+      <c r="E14" s="10" t="str">
         <f>IF(ISBLANK($C$3), "", $C$3)</f>
         <v/>
       </c>
-      <c r="F14" s="12" t="str">
+      <c r="F14" s="10" t="str">
         <f>IF(ISBLANK($F$5), "", $F$5)</f>
         <v/>
       </c>
-      <c r="G14" s="12" t="str">
+      <c r="G14" s="10" t="str">
         <f t="shared" ref="G14:I14" si="11">IF(ISBLANK($F$5), "", $F$5)</f>
         <v/>
       </c>
-      <c r="H14" s="12" t="str">
+      <c r="H14" s="10" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="I14" s="12" t="str">
+      <c r="I14" s="10" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J14" s="12" t="str">
+      <c r="J14" s="10" t="str">
         <f>IF(ISBLANK($J$2), "", $J$2)</f>
         <v/>
       </c>
-      <c r="K14" s="12" t="str">
+      <c r="K14" s="10" t="str">
         <f t="shared" ref="K14:M14" si="12">IF(ISBLANK($J$2), "", $J$2)</f>
         <v/>
       </c>
-      <c r="L14" s="12" t="str">
+      <c r="L14" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="M14" s="12" t="str">
+      <c r="M14" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="N14" s="12" t="str">
+      <c r="N14" s="10" t="str">
         <f>IF(ISBLANK($D$5), "", $D$5)</f>
         <v/>
       </c>
-      <c r="O14" s="12" t="str">
+      <c r="O14" s="10" t="str">
         <f>IF(ISBLANK($D$5), "", $D$5)</f>
         <v/>
       </c>
-      <c r="P14" s="12" t="str">
+      <c r="P14" s="10" t="str">
         <f>IF(ISBLANK($D$5), "", $D$5)</f>
         <v/>
       </c>
-      <c r="Q14" s="12" t="str">
+      <c r="Q14" s="10" t="str">
         <f>IF(ISBLANK($D$5), "", $D$5)</f>
         <v/>
       </c>
-      <c r="R14" s="12" t="str">
+      <c r="R14" s="10" t="str">
         <f t="shared" ref="R14:U14" si="13">IF(ISBLANK($J$5), "", $J$5)</f>
         <v/>
       </c>
-      <c r="S14" s="12" t="str">
+      <c r="S14" s="10" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="T14" s="12" t="str">
+      <c r="T14" s="10" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U14" s="12" t="str">
+      <c r="U14" s="10" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="V14" s="12" t="str">
+      <c r="V14" s="10" t="str">
         <f t="shared" ref="V14:Y14" si="14">IF(ISBLANK($G$4), "", $G$4)</f>
         <v/>
       </c>
-      <c r="W14" s="12" t="str">
+      <c r="W14" s="10" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="X14" s="12" t="str">
+      <c r="X14" s="10" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y14" s="12" t="str">
+      <c r="Y14" s="10" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
@@ -1254,99 +1258,99 @@
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="12" t="str">
+      <c r="B15" s="10" t="str">
         <f>IF(ISBLANK($C$4), "", $C$4)</f>
         <v/>
       </c>
-      <c r="C15" s="12" t="str">
+      <c r="C15" s="10" t="str">
         <f>IF(ISBLANK($C$4), "", $C$4)</f>
         <v/>
       </c>
-      <c r="D15" s="12" t="str">
+      <c r="D15" s="10" t="str">
         <f>IF(ISBLANK($C$4), "", $C$4)</f>
         <v/>
       </c>
-      <c r="E15" s="12" t="str">
+      <c r="E15" s="10" t="str">
         <f>IF(ISBLANK($C$4), "", $C$4)</f>
         <v/>
       </c>
-      <c r="F15" s="12" t="str">
+      <c r="F15" s="10" t="str">
         <f>IF(ISBLANK($G$2), "", $G$2)</f>
         <v/>
       </c>
-      <c r="G15" s="12" t="str">
+      <c r="G15" s="10" t="str">
         <f t="shared" ref="G15:I15" si="15">IF(ISBLANK($G$2), "", $G$2)</f>
         <v/>
       </c>
-      <c r="H15" s="12" t="str">
+      <c r="H15" s="10" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="I15" s="12" t="str">
+      <c r="I15" s="10" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="J15" s="12" t="str">
+      <c r="J15" s="10" t="str">
         <f>IF(ISBLANK($J$3), "", $J$3)</f>
         <v/>
       </c>
-      <c r="K15" s="12" t="str">
+      <c r="K15" s="10" t="str">
         <f t="shared" ref="K15:M15" si="16">IF(ISBLANK($J$3), "", $J$3)</f>
         <v/>
       </c>
-      <c r="L15" s="12" t="str">
+      <c r="L15" s="10" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="M15" s="12" t="str">
+      <c r="M15" s="10" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="N15" s="12" t="str">
+      <c r="N15" s="10" t="str">
         <f t="shared" ref="N15:Q15" si="17">IF(ISBLANK($F$2), "", $F$2)</f>
         <v/>
       </c>
-      <c r="O15" s="12" t="str">
+      <c r="O15" s="10" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P15" s="12" t="str">
+      <c r="P15" s="10" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="Q15" s="12" t="str">
+      <c r="Q15" s="10" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="R15" s="12" t="str">
+      <c r="R15" s="10" t="str">
         <f t="shared" ref="R15:U15" si="18">IF(ISBLANK($H$5), "", $H$5)</f>
         <v/>
       </c>
-      <c r="S15" s="12" t="str">
+      <c r="S15" s="10" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="T15" s="12" t="str">
+      <c r="T15" s="10" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="U15" s="12" t="str">
+      <c r="U15" s="10" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="V15" s="12" t="str">
+      <c r="V15" s="10" t="str">
         <f t="shared" ref="V15:Y15" si="19">IF(ISBLANK($H$4), "", $H$4)</f>
         <v/>
       </c>
-      <c r="W15" s="12" t="str">
+      <c r="W15" s="10" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="X15" s="12" t="str">
+      <c r="X15" s="10" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="Y15" s="12" t="str">
+      <c r="Y15" s="10" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
@@ -1355,253 +1359,253 @@
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="12" t="str">
+      <c r="B16" s="10" t="str">
         <f>IF(ISBLANK($C$5), "", $C$5)</f>
         <v/>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="12" t="str">
+      <c r="C16" s="12"/>
+      <c r="D16" s="10" t="str">
         <f>IF(ISBLANK($C$5), "", $C$5)</f>
         <v/>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="12" t="str">
+      <c r="E16" s="12"/>
+      <c r="F16" s="10" t="str">
         <f>IF(ISBLANK($C$5), "", $C$5)</f>
         <v/>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="12" t="str">
+      <c r="G16" s="12"/>
+      <c r="H16" s="10" t="str">
         <f>IF(ISBLANK($C$5), "", $C$5)</f>
         <v/>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="12" t="str">
+      <c r="I16" s="12"/>
+      <c r="J16" s="10" t="str">
         <f>IF(ISBLANK($J$4), "", $J$4)</f>
         <v/>
       </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="12" t="str">
+      <c r="K16" s="12"/>
+      <c r="L16" s="10" t="str">
         <f>IF(ISBLANK($J$4), "", $J$4)</f>
         <v/>
       </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="12" t="str">
+      <c r="M16" s="12"/>
+      <c r="N16" s="10" t="str">
         <f>IF(ISBLANK($J$4), "", $J$4)</f>
         <v/>
       </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="12" t="str">
+      <c r="O16" s="12"/>
+      <c r="P16" s="10" t="str">
         <f>IF(ISBLANK($J$4), "", $J$4)</f>
         <v/>
       </c>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="12" t="str">
+      <c r="Q16" s="12"/>
+      <c r="R16" s="10" t="str">
         <f>IF(ISBLANK($J$4), "", $J$4)</f>
         <v/>
       </c>
-      <c r="S16" s="14"/>
-      <c r="T16" s="12" t="str">
+      <c r="S16" s="12"/>
+      <c r="T16" s="10" t="str">
         <f>IF(ISBLANK($J$4), "", $J$4)</f>
         <v/>
       </c>
-      <c r="U16" s="14"/>
-      <c r="V16" s="12" t="str">
+      <c r="U16" s="12"/>
+      <c r="V16" s="10" t="str">
         <f>IF(ISBLANK($J$4), "", $J$4)</f>
         <v/>
       </c>
-      <c r="W16" s="14"/>
-      <c r="X16" s="12" t="str">
+      <c r="W16" s="12"/>
+      <c r="X16" s="10" t="str">
         <f>IF(ISBLANK($J$4), "", $J$4)</f>
         <v/>
       </c>
-      <c r="Y16" s="14"/>
+      <c r="Y16" s="12"/>
     </row>
     <row r="17" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="12" t="str">
+      <c r="B17" s="10" t="str">
         <f>IF(ISBLANK($D$2), "", $D$2)</f>
         <v/>
       </c>
-      <c r="C17" s="12" t="str">
+      <c r="C17" s="10" t="str">
         <f>IF(ISBLANK($D$2), "", $D$2)</f>
         <v/>
       </c>
-      <c r="D17" s="12" t="str">
+      <c r="D17" s="10" t="str">
         <f>IF(ISBLANK($D$2), "", $D$2)</f>
         <v/>
       </c>
-      <c r="E17" s="12" t="str">
+      <c r="E17" s="10" t="str">
         <f>IF(ISBLANK($D$2), "", $D$2)</f>
         <v/>
       </c>
-      <c r="F17" s="12" t="str">
+      <c r="F17" s="10" t="str">
         <f>IF(ISBLANK($G$3), "", $G$3)</f>
         <v/>
       </c>
-      <c r="G17" s="12" t="str">
+      <c r="G17" s="10" t="str">
         <f t="shared" ref="G17:I17" si="20">IF(ISBLANK($G$3), "", $G$3)</f>
         <v/>
       </c>
-      <c r="H17" s="12" t="str">
+      <c r="H17" s="10" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="I17" s="12" t="str">
+      <c r="I17" s="10" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J17" s="12" t="str">
+      <c r="J17" s="10" t="str">
         <f>IF(ISBLANK($J$5), "", $J$5)</f>
         <v/>
       </c>
-      <c r="K17" s="12" t="str">
+      <c r="K17" s="10" t="str">
         <f t="shared" ref="K17:L17" si="21">IF(ISBLANK($J$5), "", $J$5)</f>
         <v/>
       </c>
-      <c r="L17" s="12" t="str">
+      <c r="L17" s="10" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="M17" s="12" t="str">
+      <c r="M17" s="10" t="str">
         <f>IF(ISBLANK($J$5), "", $J$5)</f>
         <v/>
       </c>
-      <c r="N17" s="12" t="str">
+      <c r="N17" s="10" t="str">
         <f t="shared" ref="N17:Q17" si="22">IF(ISBLANK($F$4), "", $F$4)</f>
         <v/>
       </c>
-      <c r="O17" s="12" t="str">
+      <c r="O17" s="10" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P17" s="12" t="str">
+      <c r="P17" s="10" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="Q17" s="12" t="str">
+      <c r="Q17" s="10" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="R17" s="12" t="str">
+      <c r="R17" s="10" t="str">
         <f t="shared" ref="R17:U17" si="23">IF(ISBLANK($J$3), "", $J$3)</f>
         <v/>
       </c>
-      <c r="S17" s="12" t="str">
+      <c r="S17" s="10" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="T17" s="12" t="str">
+      <c r="T17" s="10" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="U17" s="12" t="str">
+      <c r="U17" s="10" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
     </row>
     <row r="18" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="12" t="str">
+      <c r="B18" s="10" t="str">
         <f>IF(ISBLANK($D$3), "", $D$3)</f>
         <v/>
       </c>
-      <c r="C18" s="12" t="str">
+      <c r="C18" s="10" t="str">
         <f>IF(ISBLANK($D$3), "", $D$3)</f>
         <v/>
       </c>
-      <c r="D18" s="12" t="str">
+      <c r="D18" s="10" t="str">
         <f>IF(ISBLANK($D$3), "", $D$3)</f>
         <v/>
       </c>
-      <c r="E18" s="12" t="str">
+      <c r="E18" s="10" t="str">
         <f>IF(ISBLANK($D$3), "", $D$3)</f>
         <v/>
       </c>
-      <c r="F18" s="12" t="str">
+      <c r="F18" s="10" t="str">
         <f>IF(ISBLANK($G$4), "", $G$4)</f>
         <v/>
       </c>
-      <c r="G18" s="12" t="str">
+      <c r="G18" s="10" t="str">
         <f t="shared" ref="G18:I18" si="24">IF(ISBLANK($G$4), "", $G$4)</f>
         <v/>
       </c>
-      <c r="H18" s="12" t="str">
+      <c r="H18" s="10" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I18" s="12" t="str">
+      <c r="I18" s="10" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J18" s="12" t="str">
+      <c r="J18" s="10" t="str">
         <f>IF(ISBLANK($K$2), "", $K$2)</f>
         <v/>
       </c>
-      <c r="K18" s="12" t="str">
+      <c r="K18" s="10" t="str">
         <f t="shared" ref="K18:L18" si="25">IF(ISBLANK($K$2), "", $K$2)</f>
         <v/>
       </c>
-      <c r="L18" s="12" t="str">
+      <c r="L18" s="10" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="M18" s="12" t="str">
+      <c r="M18" s="10" t="str">
         <f>IF(ISBLANK($K$2), "", $K$2)</f>
         <v/>
       </c>
-      <c r="N18" s="12" t="str">
+      <c r="N18" s="10" t="str">
         <f t="shared" ref="N18:Q18" si="26">IF(ISBLANK($G$3), "", $G$3)</f>
         <v/>
       </c>
-      <c r="O18" s="12" t="str">
+      <c r="O18" s="10" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="P18" s="12" t="str">
+      <c r="P18" s="10" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="Q18" s="12" t="str">
+      <c r="Q18" s="10" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="R18" s="12" t="str">
+      <c r="R18" s="10" t="str">
         <f t="shared" ref="R18:U18" si="27">IF(ISBLANK($G$5), "", $G$5)</f>
         <v/>
       </c>
-      <c r="S18" s="12" t="str">
+      <c r="S18" s="10" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="T18" s="12" t="str">
+      <c r="T18" s="10" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="U18" s="12" t="str">
+      <c r="U18" s="10" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="V18" s="12" t="str">
+      <c r="V18" s="10" t="str">
         <f t="shared" ref="V18:Y18" si="28">IF(ISBLANK($E$3), "", $E$3)</f>
         <v/>
       </c>
-      <c r="W18" s="12" t="str">
+      <c r="W18" s="10" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="X18" s="12" t="str">
+      <c r="X18" s="10" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="Y18" s="12" t="str">
+      <c r="Y18" s="10" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -1610,164 +1614,164 @@
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="12" t="str">
+      <c r="B19" s="10" t="str">
         <f>IF(ISBLANK($D$4), "", $D$4)</f>
         <v/>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="12" t="str">
+      <c r="C19" s="12"/>
+      <c r="D19" s="10" t="str">
         <f>IF(ISBLANK($D$4), "", $D$4)</f>
         <v/>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="12" t="str">
+      <c r="E19" s="12"/>
+      <c r="F19" s="10" t="str">
         <f>IF(ISBLANK($D$4), "", $D$4)</f>
         <v/>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="12" t="str">
+      <c r="G19" s="12"/>
+      <c r="H19" s="10" t="str">
         <f>IF(ISBLANK($D$4), "", $D$4)</f>
         <v/>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="12" t="str">
+      <c r="I19" s="12"/>
+      <c r="J19" s="10" t="str">
         <f>IF(ISBLANK($K$3), "", $K$3)</f>
         <v/>
       </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="12" t="str">
+      <c r="K19" s="12"/>
+      <c r="L19" s="10" t="str">
         <f>IF(ISBLANK($K$3), "", $K$3)</f>
         <v/>
       </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="12" t="str">
+      <c r="M19" s="12"/>
+      <c r="N19" s="10" t="str">
         <f>IF(ISBLANK($K$3), "", $K$3)</f>
         <v/>
       </c>
-      <c r="O19" s="14"/>
-      <c r="P19" s="12" t="str">
+      <c r="O19" s="12"/>
+      <c r="P19" s="10" t="str">
         <f>IF(ISBLANK($K$3), "", $K$3)</f>
         <v/>
       </c>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="12" t="str">
+      <c r="Q19" s="12"/>
+      <c r="R19" s="10" t="str">
         <f t="shared" ref="R19" si="29">IF(ISBLANK($H$2), "", $H$2)</f>
         <v/>
       </c>
-      <c r="S19" s="14"/>
-      <c r="T19" s="12" t="str">
+      <c r="S19" s="12"/>
+      <c r="T19" s="10" t="str">
         <f t="shared" ref="T19" si="30">IF(ISBLANK($H$2), "", $H$2)</f>
         <v/>
       </c>
-      <c r="U19" s="14"/>
-      <c r="V19" s="12" t="str">
+      <c r="U19" s="12"/>
+      <c r="V19" s="10" t="str">
         <f t="shared" ref="V19" si="31">IF(ISBLANK($H$2), "", $H$2)</f>
         <v/>
       </c>
-      <c r="W19" s="14"/>
-      <c r="X19" s="12" t="str">
+      <c r="W19" s="12"/>
+      <c r="X19" s="10" t="str">
         <f t="shared" ref="X19" si="32">IF(ISBLANK($H$2), "", $H$2)</f>
         <v/>
       </c>
-      <c r="Y19" s="14"/>
+      <c r="Y19" s="12"/>
     </row>
     <row r="20" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="12" t="str">
+      <c r="B20" s="10" t="str">
         <f>IF(ISBLANK($D$5), "", $D$5)</f>
         <v/>
       </c>
-      <c r="C20" s="12" t="str">
+      <c r="C20" s="10" t="str">
         <f>IF(ISBLANK($D$5), "", $D$5)</f>
         <v/>
       </c>
-      <c r="D20" s="12" t="str">
+      <c r="D20" s="10" t="str">
         <f>IF(ISBLANK($D$5), "", $D$5)</f>
         <v/>
       </c>
-      <c r="E20" s="12" t="str">
+      <c r="E20" s="10" t="str">
         <f>IF(ISBLANK($D$5), "", $D$5)</f>
         <v/>
       </c>
-      <c r="F20" s="12" t="str">
+      <c r="F20" s="10" t="str">
         <f>IF(ISBLANK($G$5), "", $G$5)</f>
         <v/>
       </c>
-      <c r="G20" s="12" t="str">
+      <c r="G20" s="10" t="str">
         <f t="shared" ref="G20:H20" si="33">IF(ISBLANK($G$5), "", $G$5)</f>
         <v/>
       </c>
-      <c r="H20" s="12" t="str">
+      <c r="H20" s="10" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I20" s="12" t="str">
+      <c r="I20" s="10" t="str">
         <f>IF(ISBLANK($G$5), "", $G$5)</f>
         <v/>
       </c>
-      <c r="J20" s="12" t="str">
+      <c r="J20" s="10" t="str">
         <f>IF(ISBLANK($K$4), "", $K$4)</f>
         <v/>
       </c>
-      <c r="K20" s="12" t="str">
+      <c r="K20" s="10" t="str">
         <f t="shared" ref="K20:M20" si="34">IF(ISBLANK($K$4), "", $K$4)</f>
         <v/>
       </c>
-      <c r="L20" s="12" t="str">
+      <c r="L20" s="10" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M20" s="12" t="str">
+      <c r="M20" s="10" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N20" s="12" t="str">
+      <c r="N20" s="10" t="str">
         <f t="shared" ref="N20:Q20" si="35">IF(ISBLANK($G$2), "", $G$2)</f>
         <v/>
       </c>
-      <c r="O20" s="12" t="str">
+      <c r="O20" s="10" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="P20" s="12" t="str">
+      <c r="P20" s="10" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="Q20" s="12" t="str">
+      <c r="Q20" s="10" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="R20" s="12" t="str">
+      <c r="R20" s="10" t="str">
         <f t="shared" ref="R20:U20" si="36">IF(ISBLANK($H$3), "", $H$3)</f>
         <v/>
       </c>
-      <c r="S20" s="12" t="str">
+      <c r="S20" s="10" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="T20" s="12" t="str">
+      <c r="T20" s="10" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="U20" s="12" t="str">
+      <c r="U20" s="10" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="V20" s="12" t="str">
+      <c r="V20" s="10" t="str">
         <f>IF(ISBLANK($J$2), "", $J$2)</f>
         <v/>
       </c>
-      <c r="W20" s="12" t="str">
+      <c r="W20" s="10" t="str">
         <f t="shared" ref="W20:Y20" si="37">IF(ISBLANK($J$2), "", $J$2)</f>
         <v/>
       </c>
-      <c r="X20" s="12" t="str">
+      <c r="X20" s="10" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="Y20" s="12" t="str">
+      <c r="Y20" s="10" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -1776,99 +1780,99 @@
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="12" t="str">
+      <c r="B21" s="10" t="str">
         <f>IF(ISBLANK($E$2), "", $E$2)</f>
         <v/>
       </c>
-      <c r="C21" s="12" t="str">
+      <c r="C21" s="10" t="str">
         <f>IF(ISBLANK($E$2), "", $E$2)</f>
         <v/>
       </c>
-      <c r="D21" s="12" t="str">
+      <c r="D21" s="10" t="str">
         <f>IF(ISBLANK($E$2), "", $E$2)</f>
         <v/>
       </c>
-      <c r="E21" s="12" t="str">
+      <c r="E21" s="10" t="str">
         <f>IF(ISBLANK($E$2), "", $E$2)</f>
         <v/>
       </c>
-      <c r="F21" s="12" t="str">
+      <c r="F21" s="10" t="str">
         <f>IF(ISBLANK($H$2), "", $H$2)</f>
         <v/>
       </c>
-      <c r="G21" s="12" t="str">
+      <c r="G21" s="10" t="str">
         <f t="shared" ref="G21:I21" si="38">IF(ISBLANK($H$2), "", $H$2)</f>
         <v/>
       </c>
-      <c r="H21" s="12" t="str">
+      <c r="H21" s="10" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I21" s="12" t="str">
+      <c r="I21" s="10" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J21" s="12" t="str">
+      <c r="J21" s="10" t="str">
         <f>IF(ISBLANK($K$5), "", $K$5)</f>
         <v/>
       </c>
-      <c r="K21" s="12" t="str">
+      <c r="K21" s="10" t="str">
         <f t="shared" ref="K21:M21" si="39">IF(ISBLANK($K$5), "", $K$5)</f>
         <v/>
       </c>
-      <c r="L21" s="12" t="str">
+      <c r="L21" s="10" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M21" s="12" t="str">
+      <c r="M21" s="10" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N21" s="12" t="str">
+      <c r="N21" s="10" t="str">
         <f>IF(ISBLANK($I$3), "", $I$3)</f>
         <v/>
       </c>
-      <c r="O21" s="12" t="str">
+      <c r="O21" s="10" t="str">
         <f t="shared" ref="O21:Q21" si="40">IF(ISBLANK($I$3), "", $I$3)</f>
         <v/>
       </c>
-      <c r="P21" s="12" t="str">
+      <c r="P21" s="10" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="Q21" s="12" t="str">
+      <c r="Q21" s="10" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="R21" s="12" t="str">
+      <c r="R21" s="10" t="str">
         <f t="shared" ref="R21:U21" si="41">IF(ISBLANK($I$5), "", $I$5)</f>
         <v/>
       </c>
-      <c r="S21" s="12" t="str">
+      <c r="S21" s="10" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="T21" s="12" t="str">
+      <c r="T21" s="10" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="U21" s="12" t="str">
+      <c r="U21" s="10" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="V21" s="12" t="str">
+      <c r="V21" s="10" t="str">
         <f>IF(ISBLANK($K$5), "", $K$5)</f>
         <v/>
       </c>
-      <c r="W21" s="12" t="str">
+      <c r="W21" s="10" t="str">
         <f t="shared" ref="W21:Y21" si="42">IF(ISBLANK($K$5), "", $K$5)</f>
         <v/>
       </c>
-      <c r="X21" s="12" t="str">
+      <c r="X21" s="10" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="Y21" s="12" t="str">
+      <c r="Y21" s="10" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -1877,164 +1881,164 @@
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="12" t="str">
+      <c r="B22" s="10" t="str">
         <f>IF(ISBLANK($E$3), "", $E$3)</f>
         <v/>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="12" t="str">
+      <c r="C22" s="12"/>
+      <c r="D22" s="10" t="str">
         <f>IF(ISBLANK($E$3), "", $E$3)</f>
         <v/>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="12" t="str">
+      <c r="E22" s="12"/>
+      <c r="F22" s="10" t="str">
         <f>IF(ISBLANK($E$3), "", $E$3)</f>
         <v/>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="12" t="str">
+      <c r="G22" s="12"/>
+      <c r="H22" s="10" t="str">
         <f>IF(ISBLANK($E$3), "", $E$3)</f>
         <v/>
       </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="12" t="str">
+      <c r="I22" s="12"/>
+      <c r="J22" s="10" t="str">
         <f>IF(ISBLANK($C$2), "", $C$2)</f>
         <v/>
       </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="12" t="str">
+      <c r="K22" s="12"/>
+      <c r="L22" s="10" t="str">
         <f>IF(ISBLANK($C$2), "", $C$2)</f>
         <v/>
       </c>
-      <c r="M22" s="14"/>
-      <c r="N22" s="12" t="str">
+      <c r="M22" s="12"/>
+      <c r="N22" s="10" t="str">
         <f>IF(ISBLANK($C$2), "", $C$2)</f>
         <v/>
       </c>
-      <c r="O22" s="14"/>
-      <c r="P22" s="12" t="str">
+      <c r="O22" s="12"/>
+      <c r="P22" s="10" t="str">
         <f>IF(ISBLANK($C$2), "", $C$2)</f>
         <v/>
       </c>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="12" t="str">
+      <c r="Q22" s="12"/>
+      <c r="R22" s="10" t="str">
         <f>IF(ISBLANK($K$4), "", $K$4)</f>
         <v/>
       </c>
-      <c r="S22" s="14"/>
-      <c r="T22" s="12" t="str">
+      <c r="S22" s="12"/>
+      <c r="T22" s="10" t="str">
         <f>IF(ISBLANK($K$4), "", $K$4)</f>
         <v/>
       </c>
-      <c r="U22" s="14"/>
-      <c r="V22" s="12" t="str">
+      <c r="U22" s="12"/>
+      <c r="V22" s="10" t="str">
         <f>IF(ISBLANK($K$4), "", $K$4)</f>
         <v/>
       </c>
-      <c r="W22" s="14"/>
-      <c r="X22" s="12" t="str">
+      <c r="W22" s="12"/>
+      <c r="X22" s="10" t="str">
         <f>IF(ISBLANK($K$4), "", $K$4)</f>
         <v/>
       </c>
-      <c r="Y22" s="14"/>
+      <c r="Y22" s="12"/>
     </row>
     <row r="23" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="12" t="str">
+      <c r="B23" s="10" t="str">
         <f>IF(ISBLANK($E$4), "", $E$4)</f>
         <v/>
       </c>
-      <c r="C23" s="12" t="str">
+      <c r="C23" s="10" t="str">
         <f>IF(ISBLANK($E$4), "", $E$4)</f>
         <v/>
       </c>
-      <c r="D23" s="12" t="str">
+      <c r="D23" s="10" t="str">
         <f>IF(ISBLANK($E$4), "", $E$4)</f>
         <v/>
       </c>
-      <c r="E23" s="12" t="str">
+      <c r="E23" s="10" t="str">
         <f>IF(ISBLANK($E$4), "", $E$4)</f>
         <v/>
       </c>
-      <c r="F23" s="12" t="str">
+      <c r="F23" s="10" t="str">
         <f>IF(ISBLANK($H$3), "", $H$3)</f>
         <v/>
       </c>
-      <c r="G23" s="12" t="str">
+      <c r="G23" s="10" t="str">
         <f t="shared" ref="G23:I23" si="43">IF(ISBLANK($H$3), "", $H$3)</f>
         <v/>
       </c>
-      <c r="H23" s="12" t="str">
+      <c r="H23" s="10" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I23" s="12" t="str">
+      <c r="I23" s="10" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J23" s="12" t="str">
+      <c r="J23" s="10" t="str">
         <f t="shared" ref="J23:M23" si="44">IF(ISBLANK($D$4), "", $D$4)</f>
         <v/>
       </c>
-      <c r="K23" s="12" t="str">
+      <c r="K23" s="10" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L23" s="12" t="str">
+      <c r="L23" s="10" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M23" s="12" t="str">
+      <c r="M23" s="10" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N23" s="12" t="str">
+      <c r="N23" s="10" t="str">
         <f>IF(ISBLANK($E$5), "", $E$5)</f>
         <v/>
       </c>
-      <c r="O23" s="12" t="str">
+      <c r="O23" s="10" t="str">
         <f>IF(ISBLANK($E$5), "", $E$5)</f>
         <v/>
       </c>
-      <c r="P23" s="12" t="str">
+      <c r="P23" s="10" t="str">
         <f>IF(ISBLANK($E$5), "", $E$5)</f>
         <v/>
       </c>
-      <c r="Q23" s="12" t="str">
+      <c r="Q23" s="10" t="str">
         <f>IF(ISBLANK($E$5), "", $E$5)</f>
         <v/>
       </c>
-      <c r="R23" s="12" t="str">
+      <c r="R23" s="10" t="str">
         <f t="shared" ref="R23:U23" si="45">IF(ISBLANK($F$5), "", $F$5)</f>
         <v/>
       </c>
-      <c r="S23" s="12" t="str">
+      <c r="S23" s="10" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="T23" s="12" t="str">
+      <c r="T23" s="10" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="U23" s="12" t="str">
+      <c r="U23" s="10" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="V23" s="12" t="str">
+      <c r="V23" s="10" t="str">
         <f>IF(ISBLANK($E$2), "", $E$2)</f>
         <v/>
       </c>
-      <c r="W23" s="12" t="str">
+      <c r="W23" s="10" t="str">
         <f>IF(ISBLANK($E$2), "", $E$2)</f>
         <v/>
       </c>
-      <c r="X23" s="12" t="str">
+      <c r="X23" s="10" t="str">
         <f>IF(ISBLANK($E$2), "", $E$2)</f>
         <v/>
       </c>
-      <c r="Y23" s="12" t="str">
+      <c r="Y23" s="10" t="str">
         <f>IF(ISBLANK($E$2), "", $E$2)</f>
         <v/>
       </c>
@@ -2043,105 +2047,105 @@
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="12" t="str">
+      <c r="B24" s="10" t="str">
         <f>IF(ISBLANK($E$5), "", $E$5)</f>
         <v/>
       </c>
-      <c r="C24" s="12" t="str">
+      <c r="C24" s="10" t="str">
         <f>IF(ISBLANK($E$5), "", $E$5)</f>
         <v/>
       </c>
-      <c r="D24" s="12" t="str">
+      <c r="D24" s="10" t="str">
         <f>IF(ISBLANK($E$5), "", $E$5)</f>
         <v/>
       </c>
-      <c r="E24" s="12" t="str">
+      <c r="E24" s="10" t="str">
         <f>IF(ISBLANK($E$5), "", $E$5)</f>
         <v/>
       </c>
-      <c r="F24" s="12" t="str">
+      <c r="F24" s="10" t="str">
         <f>IF(ISBLANK($H$4), "", $H$4)</f>
         <v/>
       </c>
-      <c r="G24" s="12" t="str">
+      <c r="G24" s="10" t="str">
         <f t="shared" ref="G24:H24" si="46">IF(ISBLANK($H$4), "", $H$4)</f>
         <v/>
       </c>
-      <c r="H24" s="12" t="str">
+      <c r="H24" s="10" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I24" s="12" t="str">
+      <c r="I24" s="10" t="str">
         <f>IF(ISBLANK($H$4), "", $H$4)</f>
         <v/>
       </c>
-      <c r="J24" s="12" t="str">
+      <c r="J24" s="10" t="str">
         <f t="shared" ref="J24:M24" si="47">IF(ISBLANK($F$3), "", $F$3)</f>
         <v/>
       </c>
-      <c r="K24" s="12" t="str">
+      <c r="K24" s="10" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L24" s="12" t="str">
+      <c r="L24" s="10" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M24" s="12" t="str">
+      <c r="M24" s="10" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="N24" s="12" t="str">
+      <c r="N24" s="10" t="str">
         <f>IF(ISBLANK($C$4), "", $C$4)</f>
         <v/>
       </c>
-      <c r="O24" s="12" t="str">
+      <c r="O24" s="10" t="str">
         <f>IF(ISBLANK($C$4), "", $C$4)</f>
         <v/>
       </c>
-      <c r="P24" s="12" t="str">
+      <c r="P24" s="10" t="str">
         <f>IF(ISBLANK($C$4), "", $C$4)</f>
         <v/>
       </c>
-      <c r="Q24" s="12" t="str">
+      <c r="Q24" s="10" t="str">
         <f>IF(ISBLANK($C$4), "", $C$4)</f>
         <v/>
       </c>
-      <c r="R24" s="12" t="str">
+      <c r="R24" s="10" t="str">
         <f>IF(ISBLANK($D$3), "", $D$3)</f>
         <v/>
       </c>
-      <c r="S24" s="12" t="str">
+      <c r="S24" s="10" t="str">
         <f>IF(ISBLANK($D$3), "", $D$3)</f>
         <v/>
       </c>
-      <c r="T24" s="12" t="str">
+      <c r="T24" s="10" t="str">
         <f>IF(ISBLANK($D$3), "", $D$3)</f>
         <v/>
       </c>
-      <c r="U24" s="12" t="str">
+      <c r="U24" s="10" t="str">
         <f>IF(ISBLANK($D$3), "", $D$3)</f>
         <v/>
       </c>
-      <c r="V24" s="12" t="str">
+      <c r="V24" s="10" t="str">
         <f>IF(ISBLANK($B$2), "", $B$2)</f>
         <v/>
       </c>
-      <c r="W24" s="12" t="str">
+      <c r="W24" s="10" t="str">
         <f t="shared" ref="W24:Y24" si="48">IF(ISBLANK($B$2), "", $B$2)</f>
         <v/>
       </c>
-      <c r="X24" s="12" t="str">
+      <c r="X24" s="10" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="Y24" s="12" t="str">
+      <c r="Y24" s="10" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zDlXH9LLM8cAT9rtz/N17J2VXYTO7ahDAi343NA8u8Q09oi5rbNvaUBiF9aeRvM3N/mUhSlRBWaKT3O7V7pemw==" saltValue="jmJcNkJeNC0b0ycCrRD0KA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/maldi_plate_template.xlsx
+++ b/maldi_plate_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chase\Documents\GitHub\IDBac_R01_Protocols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434D3E59-55A2-4C42-B9D4-BBD985AC107F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C5DC70-15D4-446E-B9A2-732D76A7B69C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>A</t>
   </si>
@@ -87,10 +87,142 @@
     <t>Product #:</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
     <t>Insert sample names within the blue box below. Fill down a column, move right and fill down the next column, repeat.</t>
   </si>
   <si>
     <t>Matrix Information:</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>D11</t>
   </si>
 </sst>
 </file>
@@ -561,10 +693,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="N10" sqref="N10:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +707,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -586,64 +718,156 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="P1" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="P2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="P3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -726,100 +950,64 @@
       </c>
       <c r="B9" s="10" t="str">
         <f>IF(ISBLANK($B$2), "", $B$2)</f>
-        <v/>
+        <v>A1</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f t="shared" ref="C9:E9" si="0">IF(ISBLANK($B$2), "", $B$2)</f>
-        <v/>
+        <f t="shared" ref="C9:F9" si="0">IF(ISBLANK($B$2), "", $B$2)</f>
+        <v>A1</v>
       </c>
       <c r="D9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>A1</v>
       </c>
       <c r="E9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>A1</v>
       </c>
       <c r="F9" s="10" t="str">
         <f>IF(ISBLANK($F$2), "", $F$2)</f>
-        <v/>
+        <v>A5</v>
       </c>
       <c r="G9" s="10" t="str">
-        <f t="shared" ref="G9:I9" si="1">IF(ISBLANK($F$2), "", $F$2)</f>
-        <v/>
+        <f t="shared" ref="G9:J9" si="1">IF(ISBLANK($F$2), "", $F$2)</f>
+        <v>A5</v>
       </c>
       <c r="H9" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>A5</v>
       </c>
       <c r="I9" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>A5</v>
       </c>
       <c r="J9" s="10" t="str">
         <f>IF(ISBLANK($H$5), "", $H$5)</f>
-        <v/>
+        <v>D7</v>
       </c>
       <c r="K9" s="10" t="str">
         <f t="shared" ref="K9:M9" si="2">IF(ISBLANK($H$5), "", $H$5)</f>
-        <v/>
+        <v>D7</v>
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>D7</v>
       </c>
       <c r="M9" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N9" s="10" t="str">
-        <f>IF(ISBLANK($B$4), "", $B$4)</f>
-        <v/>
-      </c>
-      <c r="O9" s="10" t="str">
-        <f>IF(ISBLANK($B$4), "", $B$4)</f>
-        <v/>
-      </c>
-      <c r="P9" s="10" t="str">
-        <f>IF(ISBLANK($B$4), "", $B$4)</f>
-        <v/>
-      </c>
-      <c r="Q9" s="10" t="str">
-        <f>IF(ISBLANK($B$4), "", $B$4)</f>
-        <v/>
-      </c>
-      <c r="R9" s="10" t="str">
-        <f>IF(ISBLANK($K$2), "", $K$2)</f>
-        <v/>
-      </c>
-      <c r="S9" s="10" t="str">
-        <f t="shared" ref="S9:T9" si="3">IF(ISBLANK($K$2), "", $K$2)</f>
-        <v/>
-      </c>
-      <c r="T9" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="U9" s="10" t="str">
-        <f>IF(ISBLANK($K$2), "", $K$2)</f>
-        <v/>
-      </c>
-      <c r="V9" s="10" t="str">
-        <f>IF(ISBLANK($B$5), "", $B$5)</f>
-        <v/>
-      </c>
-      <c r="W9" s="10" t="str">
-        <f>IF(ISBLANK($B$5), "", $B$5)</f>
-        <v/>
-      </c>
-      <c r="X9" s="10" t="str">
-        <f>IF(ISBLANK($B$5), "", $B$5)</f>
-        <v/>
-      </c>
-      <c r="Y9" s="10" t="str">
-        <f>IF(ISBLANK($B$5), "", $B$5)</f>
-        <v/>
-      </c>
+        <v>D7</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
     </row>
     <row r="10" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -827,64 +1015,52 @@
       </c>
       <c r="B10" s="10" t="str">
         <f>IF(ISBLANK($B$3), "", $B$3)</f>
-        <v/>
+        <v>B1</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="10" t="str">
         <f>IF(ISBLANK($B$3), "", $B$3)</f>
-        <v/>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="10" t="str">
+        <v>B1</v>
+      </c>
+      <c r="E10" s="10" t="str">
         <f>IF(ISBLANK($B$3), "", $B$3)</f>
-        <v/>
-      </c>
-      <c r="G10" s="12"/>
+        <v>B1</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="10" t="str">
+        <f>IF(ISBLANK($B$3), "", $B$3)</f>
+        <v>B1</v>
+      </c>
       <c r="H10" s="10" t="str">
-        <f>IF(ISBLANK($B$3), "", $B$3)</f>
-        <v/>
+        <f t="shared" ref="H10" si="3">IF(ISBLANK($I$2), "", $I$2)</f>
+        <v>A8</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="10" t="str">
         <f>IF(ISBLANK($I$2), "", $I$2)</f>
-        <v/>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="10" t="str">
+        <v>A8</v>
+      </c>
+      <c r="K10" s="10" t="str">
         <f>IF(ISBLANK($I$2), "", $I$2)</f>
-        <v/>
-      </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="10" t="str">
-        <f>IF(ISBLANK($I$2), "", $I$2)</f>
-        <v/>
-      </c>
+        <v>A8</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="10" t="str">
+        <f t="shared" ref="M10:N10" si="4">IF(ISBLANK($I$2), "", $I$2)</f>
+        <v>A8</v>
+      </c>
+      <c r="N10" s="10"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="10" t="str">
-        <f>IF(ISBLANK($I$2), "", $I$2)</f>
-        <v/>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="10" t="str">
-        <f>IF(ISBLANK($I$2), "", $I$2)</f>
-        <v/>
-      </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="10" t="str">
-        <f>IF(ISBLANK($I$2), "", $I$2)</f>
-        <v/>
-      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
       <c r="U10" s="12"/>
-      <c r="V10" s="10" t="str">
-        <f>IF(ISBLANK($I$2), "", $I$2)</f>
-        <v/>
-      </c>
-      <c r="W10" s="12"/>
-      <c r="X10" s="10" t="str">
-        <f>IF(ISBLANK($I$2), "", $I$2)</f>
-        <v/>
-      </c>
-      <c r="Y10" s="12"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="10"/>
     </row>
     <row r="11" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -892,100 +1068,64 @@
       </c>
       <c r="B11" s="10" t="str">
         <f>IF(ISBLANK($B$4), "", $B$4)</f>
-        <v/>
+        <v>C1</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f>IF(ISBLANK($B$4), "", $B$4)</f>
-        <v/>
+        <f t="shared" ref="C11:F11" si="5">IF(ISBLANK($B$4), "", $B$4)</f>
+        <v>C1</v>
       </c>
       <c r="D11" s="10" t="str">
-        <f>IF(ISBLANK($B$4), "", $B$4)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>C1</v>
       </c>
       <c r="E11" s="10" t="str">
-        <f>IF(ISBLANK($B$4), "", $B$4)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>C1</v>
       </c>
       <c r="F11" s="10" t="str">
         <f>IF(ISBLANK($F$3), "", $F$3)</f>
-        <v/>
+        <v>B5</v>
       </c>
       <c r="G11" s="10" t="str">
-        <f t="shared" ref="G11:I11" si="4">IF(ISBLANK($F$3), "", $F$3)</f>
-        <v/>
+        <f t="shared" ref="G11:I11" si="6">IF(ISBLANK($F$3), "", $F$3)</f>
+        <v>B5</v>
       </c>
       <c r="H11" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>B5</v>
       </c>
       <c r="I11" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>B5</v>
       </c>
       <c r="J11" s="10" t="str">
         <f>IF(ISBLANK($I$3), "", $I$3)</f>
-        <v/>
+        <v>B8</v>
       </c>
       <c r="K11" s="10" t="str">
-        <f t="shared" ref="K11:M11" si="5">IF(ISBLANK($I$3), "", $I$3)</f>
-        <v/>
+        <f t="shared" ref="K11:M11" si="7">IF(ISBLANK($I$3), "", $I$3)</f>
+        <v>B8</v>
       </c>
       <c r="L11" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>B8</v>
       </c>
       <c r="M11" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N11" s="10" t="str">
-        <f t="shared" ref="N11:Q11" si="6">IF(ISBLANK($B$3), "", $B$3)</f>
-        <v/>
-      </c>
-      <c r="O11" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="P11" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q11" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R11" s="10" t="str">
-        <f>IF(ISBLANK($D$2), "", $D$2)</f>
-        <v/>
-      </c>
-      <c r="S11" s="10" t="str">
-        <f>IF(ISBLANK($D$2), "", $D$2)</f>
-        <v/>
-      </c>
-      <c r="T11" s="10" t="str">
-        <f>IF(ISBLANK($D$2), "", $D$2)</f>
-        <v/>
-      </c>
-      <c r="U11" s="10" t="str">
-        <f>IF(ISBLANK($D$2), "", $D$2)</f>
-        <v/>
-      </c>
-      <c r="V11" s="10" t="str">
-        <f>IF(ISBLANK($E$4), "", $E$4)</f>
-        <v/>
-      </c>
-      <c r="W11" s="10" t="str">
-        <f>IF(ISBLANK($E$4), "", $E$4)</f>
-        <v/>
-      </c>
-      <c r="X11" s="10" t="str">
-        <f>IF(ISBLANK($E$4), "", $E$4)</f>
-        <v/>
-      </c>
-      <c r="Y11" s="10" t="str">
-        <f>IF(ISBLANK($E$4), "", $E$4)</f>
-        <v/>
-      </c>
+        <f t="shared" si="7"/>
+        <v>B8</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
     </row>
     <row r="12" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -993,100 +1133,64 @@
       </c>
       <c r="B12" s="10" t="str">
         <f>IF(ISBLANK($B$5), "", $B$5)</f>
-        <v/>
+        <v>D1</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f>IF(ISBLANK($B$5), "", $B$5)</f>
-        <v/>
+        <f t="shared" ref="C12:F12" si="8">IF(ISBLANK($B$5), "", $B$5)</f>
+        <v>D1</v>
       </c>
       <c r="D12" s="10" t="str">
-        <f>IF(ISBLANK($B$5), "", $B$5)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>D1</v>
       </c>
       <c r="E12" s="10" t="str">
-        <f>IF(ISBLANK($B$5), "", $B$5)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>D1</v>
       </c>
       <c r="F12" s="10" t="str">
         <f>IF(ISBLANK($F$4), "", $F$4)</f>
-        <v/>
+        <v>C5</v>
       </c>
       <c r="G12" s="10" t="str">
-        <f t="shared" ref="G12:I12" si="7">IF(ISBLANK($F$4), "", $F$4)</f>
-        <v/>
+        <f t="shared" ref="G12:I12" si="9">IF(ISBLANK($F$4), "", $F$4)</f>
+        <v>C5</v>
       </c>
       <c r="H12" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>C5</v>
       </c>
       <c r="I12" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>C5</v>
       </c>
       <c r="J12" s="10" t="str">
         <f>IF(ISBLANK($I$4), "", $I$4)</f>
-        <v/>
+        <v>C8</v>
       </c>
       <c r="K12" s="10" t="str">
-        <f t="shared" ref="K12:M12" si="8">IF(ISBLANK($I$4), "", $I$4)</f>
-        <v/>
+        <f t="shared" ref="K12:M12" si="10">IF(ISBLANK($I$4), "", $I$4)</f>
+        <v>C8</v>
       </c>
       <c r="L12" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>C8</v>
       </c>
       <c r="M12" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N12" s="10" t="str">
-        <f>IF(ISBLANK($C$3), "", $C$3)</f>
-        <v/>
-      </c>
-      <c r="O12" s="10" t="str">
-        <f>IF(ISBLANK($C$3), "", $C$3)</f>
-        <v/>
-      </c>
-      <c r="P12" s="10" t="str">
-        <f>IF(ISBLANK($C$3), "", $C$3)</f>
-        <v/>
-      </c>
-      <c r="Q12" s="10" t="str">
-        <f>IF(ISBLANK($C$3), "", $C$3)</f>
-        <v/>
-      </c>
-      <c r="R12" s="10" t="str">
-        <f t="shared" ref="R12:U12" si="9">IF(ISBLANK($C$5), "", $C$5)</f>
-        <v/>
-      </c>
-      <c r="S12" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T12" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="U12" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="V12" s="10" t="str">
-        <f>IF(ISBLANK($I$4), "", $I$4)</f>
-        <v/>
-      </c>
-      <c r="W12" s="10" t="str">
-        <f t="shared" ref="W12:Y12" si="10">IF(ISBLANK($I$4), "", $I$4)</f>
-        <v/>
-      </c>
-      <c r="X12" s="10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Y12" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
+        <v>C8</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
     </row>
     <row r="13" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1094,64 +1198,52 @@
       </c>
       <c r="B13" s="10" t="str">
         <f>IF(ISBLANK($C$2), "", $C$2)</f>
-        <v/>
+        <v>A2</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="10" t="str">
         <f>IF(ISBLANK($C$2), "", $C$2)</f>
-        <v/>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="10" t="str">
+        <v>A2</v>
+      </c>
+      <c r="E13" s="10" t="str">
         <f>IF(ISBLANK($C$2), "", $C$2)</f>
-        <v/>
-      </c>
-      <c r="G13" s="12"/>
+        <v>A2</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10" t="str">
+        <f>IF(ISBLANK($C$2), "", $C$2)</f>
+        <v>A2</v>
+      </c>
       <c r="H13" s="10" t="str">
-        <f>IF(ISBLANK($C$2), "", $C$2)</f>
-        <v/>
+        <f t="shared" ref="H13" si="11">IF(ISBLANK($I$5), "", $I$5)</f>
+        <v>D8</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="10" t="str">
         <f>IF(ISBLANK($I$5), "", $I$5)</f>
-        <v/>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="10" t="str">
+        <v>D8</v>
+      </c>
+      <c r="K13" s="10" t="str">
         <f>IF(ISBLANK($I$5), "", $I$5)</f>
-        <v/>
-      </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="10" t="str">
-        <f>IF(ISBLANK($I$5), "", $I$5)</f>
-        <v/>
-      </c>
+        <v>D8</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="10" t="str">
+        <f t="shared" ref="M13:N13" si="12">IF(ISBLANK($I$5), "", $I$5)</f>
+        <v>D8</v>
+      </c>
+      <c r="N13" s="10"/>
       <c r="O13" s="12"/>
-      <c r="P13" s="10" t="str">
-        <f>IF(ISBLANK($I$5), "", $I$5)</f>
-        <v/>
-      </c>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="10" t="str">
-        <f>IF(ISBLANK($K$3), "", $K$3)</f>
-        <v/>
-      </c>
-      <c r="S13" s="12"/>
-      <c r="T13" s="10" t="str">
-        <f>IF(ISBLANK($K$3), "", $K$3)</f>
-        <v/>
-      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
       <c r="U13" s="12"/>
-      <c r="V13" s="10" t="str">
-        <f>IF(ISBLANK($K$3), "", $K$3)</f>
-        <v/>
-      </c>
-      <c r="W13" s="12"/>
-      <c r="X13" s="10" t="str">
-        <f>IF(ISBLANK($K$3), "", $K$3)</f>
-        <v/>
-      </c>
-      <c r="Y13" s="12"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="10"/>
     </row>
     <row r="14" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1159,100 +1251,64 @@
       </c>
       <c r="B14" s="10" t="str">
         <f>IF(ISBLANK($C$3), "", $C$3)</f>
-        <v/>
+        <v>B2</v>
       </c>
       <c r="C14" s="10" t="str">
-        <f>IF(ISBLANK($C$3), "", $C$3)</f>
-        <v/>
+        <f t="shared" ref="C14:F14" si="13">IF(ISBLANK($C$3), "", $C$3)</f>
+        <v>B2</v>
       </c>
       <c r="D14" s="10" t="str">
-        <f>IF(ISBLANK($C$3), "", $C$3)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>B2</v>
       </c>
       <c r="E14" s="10" t="str">
-        <f>IF(ISBLANK($C$3), "", $C$3)</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>B2</v>
       </c>
       <c r="F14" s="10" t="str">
         <f>IF(ISBLANK($F$5), "", $F$5)</f>
-        <v/>
+        <v>D5</v>
       </c>
       <c r="G14" s="10" t="str">
-        <f t="shared" ref="G14:I14" si="11">IF(ISBLANK($F$5), "", $F$5)</f>
-        <v/>
+        <f t="shared" ref="G14:I14" si="14">IF(ISBLANK($F$5), "", $F$5)</f>
+        <v>D5</v>
       </c>
       <c r="H14" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>D5</v>
       </c>
       <c r="I14" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>D5</v>
       </c>
       <c r="J14" s="10" t="str">
         <f>IF(ISBLANK($J$2), "", $J$2)</f>
-        <v/>
+        <v>A9</v>
       </c>
       <c r="K14" s="10" t="str">
-        <f t="shared" ref="K14:M14" si="12">IF(ISBLANK($J$2), "", $J$2)</f>
-        <v/>
+        <f t="shared" ref="K14:M14" si="15">IF(ISBLANK($J$2), "", $J$2)</f>
+        <v>A9</v>
       </c>
       <c r="L14" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>A9</v>
       </c>
       <c r="M14" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="N14" s="10" t="str">
-        <f>IF(ISBLANK($D$5), "", $D$5)</f>
-        <v/>
-      </c>
-      <c r="O14" s="10" t="str">
-        <f>IF(ISBLANK($D$5), "", $D$5)</f>
-        <v/>
-      </c>
-      <c r="P14" s="10" t="str">
-        <f>IF(ISBLANK($D$5), "", $D$5)</f>
-        <v/>
-      </c>
-      <c r="Q14" s="10" t="str">
-        <f>IF(ISBLANK($D$5), "", $D$5)</f>
-        <v/>
-      </c>
-      <c r="R14" s="10" t="str">
-        <f t="shared" ref="R14:U14" si="13">IF(ISBLANK($J$5), "", $J$5)</f>
-        <v/>
-      </c>
-      <c r="S14" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T14" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="U14" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="V14" s="10" t="str">
-        <f t="shared" ref="V14:Y14" si="14">IF(ISBLANK($G$4), "", $G$4)</f>
-        <v/>
-      </c>
-      <c r="W14" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="X14" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="Y14" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
+        <f t="shared" si="15"/>
+        <v>A9</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
     </row>
     <row r="15" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1260,100 +1316,64 @@
       </c>
       <c r="B15" s="10" t="str">
         <f>IF(ISBLANK($C$4), "", $C$4)</f>
-        <v/>
+        <v>C2</v>
       </c>
       <c r="C15" s="10" t="str">
-        <f>IF(ISBLANK($C$4), "", $C$4)</f>
-        <v/>
+        <f t="shared" ref="C15:F15" si="16">IF(ISBLANK($C$4), "", $C$4)</f>
+        <v>C2</v>
       </c>
       <c r="D15" s="10" t="str">
-        <f>IF(ISBLANK($C$4), "", $C$4)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>C2</v>
       </c>
       <c r="E15" s="10" t="str">
-        <f>IF(ISBLANK($C$4), "", $C$4)</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>C2</v>
       </c>
       <c r="F15" s="10" t="str">
         <f>IF(ISBLANK($G$2), "", $G$2)</f>
-        <v/>
+        <v>A6</v>
       </c>
       <c r="G15" s="10" t="str">
-        <f t="shared" ref="G15:I15" si="15">IF(ISBLANK($G$2), "", $G$2)</f>
-        <v/>
+        <f t="shared" ref="G15:I15" si="17">IF(ISBLANK($G$2), "", $G$2)</f>
+        <v>A6</v>
       </c>
       <c r="H15" s="10" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>A6</v>
       </c>
       <c r="I15" s="10" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>A6</v>
       </c>
       <c r="J15" s="10" t="str">
         <f>IF(ISBLANK($J$3), "", $J$3)</f>
-        <v/>
+        <v>B9</v>
       </c>
       <c r="K15" s="10" t="str">
-        <f t="shared" ref="K15:M15" si="16">IF(ISBLANK($J$3), "", $J$3)</f>
-        <v/>
+        <f t="shared" ref="K15:M15" si="18">IF(ISBLANK($J$3), "", $J$3)</f>
+        <v>B9</v>
       </c>
       <c r="L15" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>B9</v>
       </c>
       <c r="M15" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="N15" s="10" t="str">
-        <f t="shared" ref="N15:Q15" si="17">IF(ISBLANK($F$2), "", $F$2)</f>
-        <v/>
-      </c>
-      <c r="O15" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="P15" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q15" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="R15" s="10" t="str">
-        <f t="shared" ref="R15:U15" si="18">IF(ISBLANK($H$5), "", $H$5)</f>
-        <v/>
-      </c>
-      <c r="S15" s="10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="T15" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="U15" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="V15" s="10" t="str">
-        <f t="shared" ref="V15:Y15" si="19">IF(ISBLANK($H$4), "", $H$4)</f>
-        <v/>
-      </c>
-      <c r="W15" s="10" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="X15" s="10" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Y15" s="10" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
+        <v>B9</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
     </row>
     <row r="16" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1361,64 +1381,52 @@
       </c>
       <c r="B16" s="10" t="str">
         <f>IF(ISBLANK($C$5), "", $C$5)</f>
-        <v/>
+        <v>D2</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="10" t="str">
         <f>IF(ISBLANK($C$5), "", $C$5)</f>
-        <v/>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="10" t="str">
+        <v>D2</v>
+      </c>
+      <c r="E16" s="10" t="str">
         <f>IF(ISBLANK($C$5), "", $C$5)</f>
-        <v/>
-      </c>
-      <c r="G16" s="12"/>
+        <v>D2</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10" t="str">
+        <f>IF(ISBLANK($C$5), "", $C$5)</f>
+        <v>D2</v>
+      </c>
       <c r="H16" s="10" t="str">
-        <f>IF(ISBLANK($C$5), "", $C$5)</f>
-        <v/>
+        <f t="shared" ref="H16" si="19">IF(ISBLANK($J$4), "", $J$4)</f>
+        <v>C9</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="10" t="str">
         <f>IF(ISBLANK($J$4), "", $J$4)</f>
-        <v/>
-      </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="10" t="str">
+        <v>C9</v>
+      </c>
+      <c r="K16" s="10" t="str">
         <f>IF(ISBLANK($J$4), "", $J$4)</f>
-        <v/>
-      </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="10" t="str">
-        <f>IF(ISBLANK($J$4), "", $J$4)</f>
-        <v/>
-      </c>
+        <v>C9</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="10" t="str">
+        <f t="shared" ref="M16:N16" si="20">IF(ISBLANK($J$4), "", $J$4)</f>
+        <v>C9</v>
+      </c>
+      <c r="N16" s="10"/>
       <c r="O16" s="12"/>
-      <c r="P16" s="10" t="str">
-        <f>IF(ISBLANK($J$4), "", $J$4)</f>
-        <v/>
-      </c>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="10" t="str">
-        <f>IF(ISBLANK($J$4), "", $J$4)</f>
-        <v/>
-      </c>
-      <c r="S16" s="12"/>
-      <c r="T16" s="10" t="str">
-        <f>IF(ISBLANK($J$4), "", $J$4)</f>
-        <v/>
-      </c>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="10" t="str">
-        <f>IF(ISBLANK($J$4), "", $J$4)</f>
-        <v/>
-      </c>
-      <c r="W16" s="12"/>
-      <c r="X16" s="10" t="str">
-        <f>IF(ISBLANK($J$4), "", $J$4)</f>
-        <v/>
-      </c>
-      <c r="Y16" s="12"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="10"/>
     </row>
     <row r="17" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -1426,84 +1434,60 @@
       </c>
       <c r="B17" s="10" t="str">
         <f>IF(ISBLANK($D$2), "", $D$2)</f>
-        <v/>
+        <v>A3</v>
       </c>
       <c r="C17" s="10" t="str">
-        <f>IF(ISBLANK($D$2), "", $D$2)</f>
-        <v/>
+        <f t="shared" ref="C17:F17" si="21">IF(ISBLANK($D$2), "", $D$2)</f>
+        <v>A3</v>
       </c>
       <c r="D17" s="10" t="str">
-        <f>IF(ISBLANK($D$2), "", $D$2)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>A3</v>
       </c>
       <c r="E17" s="10" t="str">
-        <f>IF(ISBLANK($D$2), "", $D$2)</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>A3</v>
       </c>
       <c r="F17" s="10" t="str">
         <f>IF(ISBLANK($G$3), "", $G$3)</f>
-        <v/>
+        <v>B6</v>
       </c>
       <c r="G17" s="10" t="str">
-        <f t="shared" ref="G17:I17" si="20">IF(ISBLANK($G$3), "", $G$3)</f>
-        <v/>
+        <f t="shared" ref="G17:I17" si="22">IF(ISBLANK($G$3), "", $G$3)</f>
+        <v>B6</v>
       </c>
       <c r="H17" s="10" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>B6</v>
       </c>
       <c r="I17" s="10" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>B6</v>
       </c>
       <c r="J17" s="10" t="str">
         <f>IF(ISBLANK($J$5), "", $J$5)</f>
-        <v/>
+        <v>D9</v>
       </c>
       <c r="K17" s="10" t="str">
-        <f t="shared" ref="K17:L17" si="21">IF(ISBLANK($J$5), "", $J$5)</f>
-        <v/>
+        <f t="shared" ref="K17:M17" si="23">IF(ISBLANK($J$5), "", $J$5)</f>
+        <v>D9</v>
       </c>
       <c r="L17" s="10" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>D9</v>
       </c>
       <c r="M17" s="10" t="str">
-        <f>IF(ISBLANK($J$5), "", $J$5)</f>
-        <v/>
-      </c>
-      <c r="N17" s="10" t="str">
-        <f t="shared" ref="N17:Q17" si="22">IF(ISBLANK($F$4), "", $F$4)</f>
-        <v/>
-      </c>
-      <c r="O17" s="10" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="P17" s="10" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="Q17" s="10" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="R17" s="10" t="str">
-        <f t="shared" ref="R17:U17" si="23">IF(ISBLANK($J$3), "", $J$3)</f>
-        <v/>
-      </c>
-      <c r="S17" s="10" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="T17" s="10" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="U17" s="10" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
+        <v>D9</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
@@ -1515,100 +1499,64 @@
       </c>
       <c r="B18" s="10" t="str">
         <f>IF(ISBLANK($D$3), "", $D$3)</f>
-        <v/>
+        <v>B3</v>
       </c>
       <c r="C18" s="10" t="str">
-        <f>IF(ISBLANK($D$3), "", $D$3)</f>
-        <v/>
+        <f t="shared" ref="C18:F18" si="24">IF(ISBLANK($D$3), "", $D$3)</f>
+        <v>B3</v>
       </c>
       <c r="D18" s="10" t="str">
-        <f>IF(ISBLANK($D$3), "", $D$3)</f>
-        <v/>
+        <f t="shared" si="24"/>
+        <v>B3</v>
       </c>
       <c r="E18" s="10" t="str">
-        <f>IF(ISBLANK($D$3), "", $D$3)</f>
-        <v/>
+        <f t="shared" si="24"/>
+        <v>B3</v>
       </c>
       <c r="F18" s="10" t="str">
         <f>IF(ISBLANK($G$4), "", $G$4)</f>
-        <v/>
+        <v>C6</v>
       </c>
       <c r="G18" s="10" t="str">
-        <f t="shared" ref="G18:I18" si="24">IF(ISBLANK($G$4), "", $G$4)</f>
-        <v/>
+        <f t="shared" ref="G18:I18" si="25">IF(ISBLANK($G$4), "", $G$4)</f>
+        <v>C6</v>
       </c>
       <c r="H18" s="10" t="str">
-        <f t="shared" si="24"/>
-        <v/>
+        <f t="shared" si="25"/>
+        <v>C6</v>
       </c>
       <c r="I18" s="10" t="str">
-        <f t="shared" si="24"/>
-        <v/>
+        <f t="shared" si="25"/>
+        <v>C6</v>
       </c>
       <c r="J18" s="10" t="str">
         <f>IF(ISBLANK($K$2), "", $K$2)</f>
-        <v/>
+        <v>A10</v>
       </c>
       <c r="K18" s="10" t="str">
-        <f t="shared" ref="K18:L18" si="25">IF(ISBLANK($K$2), "", $K$2)</f>
-        <v/>
+        <f t="shared" ref="K18:M18" si="26">IF(ISBLANK($K$2), "", $K$2)</f>
+        <v>A10</v>
       </c>
       <c r="L18" s="10" t="str">
-        <f t="shared" si="25"/>
-        <v/>
+        <f t="shared" si="26"/>
+        <v>A10</v>
       </c>
       <c r="M18" s="10" t="str">
-        <f>IF(ISBLANK($K$2), "", $K$2)</f>
-        <v/>
-      </c>
-      <c r="N18" s="10" t="str">
-        <f t="shared" ref="N18:Q18" si="26">IF(ISBLANK($G$3), "", $G$3)</f>
-        <v/>
-      </c>
-      <c r="O18" s="10" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="P18" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Q18" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="R18" s="10" t="str">
-        <f t="shared" ref="R18:U18" si="27">IF(ISBLANK($G$5), "", $G$5)</f>
-        <v/>
-      </c>
-      <c r="S18" s="10" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="T18" s="10" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="U18" s="10" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="V18" s="10" t="str">
-        <f t="shared" ref="V18:Y18" si="28">IF(ISBLANK($E$3), "", $E$3)</f>
-        <v/>
-      </c>
-      <c r="W18" s="10" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="X18" s="10" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="Y18" s="10" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
+        <v>A10</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
     </row>
     <row r="19" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1616,64 +1564,52 @@
       </c>
       <c r="B19" s="10" t="str">
         <f>IF(ISBLANK($D$4), "", $D$4)</f>
-        <v/>
+        <v>C3</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="10" t="str">
         <f>IF(ISBLANK($D$4), "", $D$4)</f>
-        <v/>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="10" t="str">
+        <v>C3</v>
+      </c>
+      <c r="E19" s="10" t="str">
         <f>IF(ISBLANK($D$4), "", $D$4)</f>
-        <v/>
-      </c>
-      <c r="G19" s="12"/>
+        <v>C3</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="10" t="str">
+        <f>IF(ISBLANK($D$4), "", $D$4)</f>
+        <v>C3</v>
+      </c>
       <c r="H19" s="10" t="str">
-        <f>IF(ISBLANK($D$4), "", $D$4)</f>
-        <v/>
+        <f t="shared" ref="H19" si="27">IF(ISBLANK($K$3), "", $K$3)</f>
+        <v>B10</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="10" t="str">
         <f>IF(ISBLANK($K$3), "", $K$3)</f>
-        <v/>
-      </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="10" t="str">
+        <v>B10</v>
+      </c>
+      <c r="K19" s="10" t="str">
         <f>IF(ISBLANK($K$3), "", $K$3)</f>
-        <v/>
-      </c>
-      <c r="M19" s="12"/>
-      <c r="N19" s="10" t="str">
-        <f>IF(ISBLANK($K$3), "", $K$3)</f>
-        <v/>
-      </c>
+        <v>B10</v>
+      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="10" t="str">
+        <f t="shared" ref="M19:N19" si="28">IF(ISBLANK($K$3), "", $K$3)</f>
+        <v>B10</v>
+      </c>
+      <c r="N19" s="10"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="10" t="str">
-        <f>IF(ISBLANK($K$3), "", $K$3)</f>
-        <v/>
-      </c>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="10" t="str">
-        <f t="shared" ref="R19" si="29">IF(ISBLANK($H$2), "", $H$2)</f>
-        <v/>
-      </c>
-      <c r="S19" s="12"/>
-      <c r="T19" s="10" t="str">
-        <f t="shared" ref="T19" si="30">IF(ISBLANK($H$2), "", $H$2)</f>
-        <v/>
-      </c>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
       <c r="U19" s="12"/>
-      <c r="V19" s="10" t="str">
-        <f t="shared" ref="V19" si="31">IF(ISBLANK($H$2), "", $H$2)</f>
-        <v/>
-      </c>
-      <c r="W19" s="12"/>
-      <c r="X19" s="10" t="str">
-        <f t="shared" ref="X19" si="32">IF(ISBLANK($H$2), "", $H$2)</f>
-        <v/>
-      </c>
-      <c r="Y19" s="12"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="10"/>
     </row>
     <row r="20" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1681,100 +1617,64 @@
       </c>
       <c r="B20" s="10" t="str">
         <f>IF(ISBLANK($D$5), "", $D$5)</f>
-        <v/>
+        <v>D3</v>
       </c>
       <c r="C20" s="10" t="str">
-        <f>IF(ISBLANK($D$5), "", $D$5)</f>
-        <v/>
+        <f t="shared" ref="C20:F20" si="29">IF(ISBLANK($D$5), "", $D$5)</f>
+        <v>D3</v>
       </c>
       <c r="D20" s="10" t="str">
-        <f>IF(ISBLANK($D$5), "", $D$5)</f>
-        <v/>
+        <f t="shared" si="29"/>
+        <v>D3</v>
       </c>
       <c r="E20" s="10" t="str">
-        <f>IF(ISBLANK($D$5), "", $D$5)</f>
-        <v/>
+        <f t="shared" si="29"/>
+        <v>D3</v>
       </c>
       <c r="F20" s="10" t="str">
         <f>IF(ISBLANK($G$5), "", $G$5)</f>
-        <v/>
+        <v>D6</v>
       </c>
       <c r="G20" s="10" t="str">
-        <f t="shared" ref="G20:H20" si="33">IF(ISBLANK($G$5), "", $G$5)</f>
-        <v/>
+        <f t="shared" ref="G20:I20" si="30">IF(ISBLANK($G$5), "", $G$5)</f>
+        <v>D6</v>
       </c>
       <c r="H20" s="10" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>D6</v>
       </c>
       <c r="I20" s="10" t="str">
-        <f>IF(ISBLANK($G$5), "", $G$5)</f>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>D6</v>
       </c>
       <c r="J20" s="10" t="str">
         <f>IF(ISBLANK($K$4), "", $K$4)</f>
-        <v/>
+        <v>C10</v>
       </c>
       <c r="K20" s="10" t="str">
-        <f t="shared" ref="K20:M20" si="34">IF(ISBLANK($K$4), "", $K$4)</f>
-        <v/>
+        <f t="shared" ref="K20:M20" si="31">IF(ISBLANK($K$4), "", $K$4)</f>
+        <v>C10</v>
       </c>
       <c r="L20" s="10" t="str">
-        <f t="shared" si="34"/>
-        <v/>
+        <f t="shared" si="31"/>
+        <v>C10</v>
       </c>
       <c r="M20" s="10" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="N20" s="10" t="str">
-        <f t="shared" ref="N20:Q20" si="35">IF(ISBLANK($G$2), "", $G$2)</f>
-        <v/>
-      </c>
-      <c r="O20" s="10" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="P20" s="10" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="Q20" s="10" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="R20" s="10" t="str">
-        <f t="shared" ref="R20:U20" si="36">IF(ISBLANK($H$3), "", $H$3)</f>
-        <v/>
-      </c>
-      <c r="S20" s="10" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="T20" s="10" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="U20" s="10" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="V20" s="10" t="str">
-        <f>IF(ISBLANK($J$2), "", $J$2)</f>
-        <v/>
-      </c>
-      <c r="W20" s="10" t="str">
-        <f t="shared" ref="W20:Y20" si="37">IF(ISBLANK($J$2), "", $J$2)</f>
-        <v/>
-      </c>
-      <c r="X20" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="Y20" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
+        <f t="shared" si="31"/>
+        <v>C10</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
     </row>
     <row r="21" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -1782,100 +1682,64 @@
       </c>
       <c r="B21" s="10" t="str">
         <f>IF(ISBLANK($E$2), "", $E$2)</f>
-        <v/>
+        <v>A4</v>
       </c>
       <c r="C21" s="10" t="str">
-        <f>IF(ISBLANK($E$2), "", $E$2)</f>
-        <v/>
+        <f t="shared" ref="C21:F21" si="32">IF(ISBLANK($E$2), "", $E$2)</f>
+        <v>A4</v>
       </c>
       <c r="D21" s="10" t="str">
-        <f>IF(ISBLANK($E$2), "", $E$2)</f>
-        <v/>
+        <f t="shared" si="32"/>
+        <v>A4</v>
       </c>
       <c r="E21" s="10" t="str">
-        <f>IF(ISBLANK($E$2), "", $E$2)</f>
-        <v/>
+        <f t="shared" si="32"/>
+        <v>A4</v>
       </c>
       <c r="F21" s="10" t="str">
         <f>IF(ISBLANK($H$2), "", $H$2)</f>
-        <v/>
+        <v>A7</v>
       </c>
       <c r="G21" s="10" t="str">
-        <f t="shared" ref="G21:I21" si="38">IF(ISBLANK($H$2), "", $H$2)</f>
-        <v/>
+        <f t="shared" ref="G21:I21" si="33">IF(ISBLANK($H$2), "", $H$2)</f>
+        <v>A7</v>
       </c>
       <c r="H21" s="10" t="str">
-        <f t="shared" si="38"/>
-        <v/>
+        <f t="shared" si="33"/>
+        <v>A7</v>
       </c>
       <c r="I21" s="10" t="str">
-        <f t="shared" si="38"/>
-        <v/>
+        <f t="shared" si="33"/>
+        <v>A7</v>
       </c>
       <c r="J21" s="10" t="str">
         <f>IF(ISBLANK($K$5), "", $K$5)</f>
-        <v/>
+        <v>D10</v>
       </c>
       <c r="K21" s="10" t="str">
-        <f t="shared" ref="K21:M21" si="39">IF(ISBLANK($K$5), "", $K$5)</f>
-        <v/>
+        <f t="shared" ref="K21:M21" si="34">IF(ISBLANK($K$5), "", $K$5)</f>
+        <v>D10</v>
       </c>
       <c r="L21" s="10" t="str">
-        <f t="shared" si="39"/>
-        <v/>
+        <f t="shared" si="34"/>
+        <v>D10</v>
       </c>
       <c r="M21" s="10" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="N21" s="10" t="str">
-        <f>IF(ISBLANK($I$3), "", $I$3)</f>
-        <v/>
-      </c>
-      <c r="O21" s="10" t="str">
-        <f t="shared" ref="O21:Q21" si="40">IF(ISBLANK($I$3), "", $I$3)</f>
-        <v/>
-      </c>
-      <c r="P21" s="10" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Q21" s="10" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="R21" s="10" t="str">
-        <f t="shared" ref="R21:U21" si="41">IF(ISBLANK($I$5), "", $I$5)</f>
-        <v/>
-      </c>
-      <c r="S21" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="T21" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="U21" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="V21" s="10" t="str">
-        <f>IF(ISBLANK($K$5), "", $K$5)</f>
-        <v/>
-      </c>
-      <c r="W21" s="10" t="str">
-        <f t="shared" ref="W21:Y21" si="42">IF(ISBLANK($K$5), "", $K$5)</f>
-        <v/>
-      </c>
-      <c r="X21" s="10" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="Y21" s="10" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
+        <f t="shared" si="34"/>
+        <v>D10</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
     </row>
     <row r="22" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -1883,64 +1747,52 @@
       </c>
       <c r="B22" s="10" t="str">
         <f>IF(ISBLANK($E$3), "", $E$3)</f>
-        <v/>
+        <v>B4</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="10" t="str">
         <f>IF(ISBLANK($E$3), "", $E$3)</f>
-        <v/>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="10" t="str">
+        <v>B4</v>
+      </c>
+      <c r="E22" s="10" t="str">
         <f>IF(ISBLANK($E$3), "", $E$3)</f>
-        <v/>
-      </c>
-      <c r="G22" s="12"/>
+        <v>B4</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10" t="str">
+        <f>IF(ISBLANK($E$3), "", $E$3)</f>
+        <v>B4</v>
+      </c>
       <c r="H22" s="10" t="str">
-        <f>IF(ISBLANK($E$3), "", $E$3)</f>
-        <v/>
+        <f>IF(ISBLANK($L$2), "", $L$2)</f>
+        <v>A11</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="10" t="str">
-        <f>IF(ISBLANK($C$2), "", $C$2)</f>
-        <v/>
-      </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="10" t="str">
-        <f>IF(ISBLANK($C$2), "", $C$2)</f>
-        <v/>
-      </c>
-      <c r="M22" s="12"/>
-      <c r="N22" s="10" t="str">
-        <f>IF(ISBLANK($C$2), "", $C$2)</f>
-        <v/>
-      </c>
+        <f>IF(ISBLANK($L$2), "", $L$2)</f>
+        <v>A11</v>
+      </c>
+      <c r="K22" s="10" t="str">
+        <f>IF(ISBLANK($L$2), "", $L$2)</f>
+        <v>A11</v>
+      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="10" t="str">
+        <f>IF(ISBLANK($L$2), "", $L$2)</f>
+        <v>A11</v>
+      </c>
+      <c r="N22" s="10"/>
       <c r="O22" s="12"/>
-      <c r="P22" s="10" t="str">
-        <f>IF(ISBLANK($C$2), "", $C$2)</f>
-        <v/>
-      </c>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="10" t="str">
-        <f>IF(ISBLANK($K$4), "", $K$4)</f>
-        <v/>
-      </c>
-      <c r="S22" s="12"/>
-      <c r="T22" s="10" t="str">
-        <f>IF(ISBLANK($K$4), "", $K$4)</f>
-        <v/>
-      </c>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
       <c r="U22" s="12"/>
-      <c r="V22" s="10" t="str">
-        <f>IF(ISBLANK($K$4), "", $K$4)</f>
-        <v/>
-      </c>
-      <c r="W22" s="12"/>
-      <c r="X22" s="10" t="str">
-        <f>IF(ISBLANK($K$4), "", $K$4)</f>
-        <v/>
-      </c>
-      <c r="Y22" s="12"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="10"/>
     </row>
     <row r="23" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1948,100 +1800,64 @@
       </c>
       <c r="B23" s="10" t="str">
         <f>IF(ISBLANK($E$4), "", $E$4)</f>
-        <v/>
+        <v>C4</v>
       </c>
       <c r="C23" s="10" t="str">
-        <f>IF(ISBLANK($E$4), "", $E$4)</f>
-        <v/>
+        <f t="shared" ref="C23:F23" si="35">IF(ISBLANK($E$4), "", $E$4)</f>
+        <v>C4</v>
       </c>
       <c r="D23" s="10" t="str">
-        <f>IF(ISBLANK($E$4), "", $E$4)</f>
-        <v/>
+        <f t="shared" si="35"/>
+        <v>C4</v>
       </c>
       <c r="E23" s="10" t="str">
-        <f>IF(ISBLANK($E$4), "", $E$4)</f>
-        <v/>
+        <f t="shared" si="35"/>
+        <v>C4</v>
       </c>
       <c r="F23" s="10" t="str">
         <f>IF(ISBLANK($H$3), "", $H$3)</f>
-        <v/>
+        <v>B7</v>
       </c>
       <c r="G23" s="10" t="str">
-        <f t="shared" ref="G23:I23" si="43">IF(ISBLANK($H$3), "", $H$3)</f>
-        <v/>
+        <f t="shared" ref="G23:I23" si="36">IF(ISBLANK($H$3), "", $H$3)</f>
+        <v>B7</v>
       </c>
       <c r="H23" s="10" t="str">
-        <f t="shared" si="43"/>
-        <v/>
+        <f t="shared" si="36"/>
+        <v>B7</v>
       </c>
       <c r="I23" s="10" t="str">
-        <f t="shared" si="43"/>
-        <v/>
+        <f t="shared" si="36"/>
+        <v>B7</v>
       </c>
       <c r="J23" s="10" t="str">
-        <f t="shared" ref="J23:M23" si="44">IF(ISBLANK($D$4), "", $D$4)</f>
-        <v/>
+        <f>IF(ISBLANK($L$3), "", $L$3)</f>
+        <v>B11</v>
       </c>
       <c r="K23" s="10" t="str">
-        <f t="shared" si="44"/>
-        <v/>
+        <f t="shared" ref="K23:M23" si="37">IF(ISBLANK($L$3), "", $L$3)</f>
+        <v>B11</v>
       </c>
       <c r="L23" s="10" t="str">
-        <f t="shared" si="44"/>
-        <v/>
+        <f t="shared" si="37"/>
+        <v>B11</v>
       </c>
       <c r="M23" s="10" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N23" s="10" t="str">
-        <f>IF(ISBLANK($E$5), "", $E$5)</f>
-        <v/>
-      </c>
-      <c r="O23" s="10" t="str">
-        <f>IF(ISBLANK($E$5), "", $E$5)</f>
-        <v/>
-      </c>
-      <c r="P23" s="10" t="str">
-        <f>IF(ISBLANK($E$5), "", $E$5)</f>
-        <v/>
-      </c>
-      <c r="Q23" s="10" t="str">
-        <f>IF(ISBLANK($E$5), "", $E$5)</f>
-        <v/>
-      </c>
-      <c r="R23" s="10" t="str">
-        <f t="shared" ref="R23:U23" si="45">IF(ISBLANK($F$5), "", $F$5)</f>
-        <v/>
-      </c>
-      <c r="S23" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="T23" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="U23" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="V23" s="10" t="str">
-        <f>IF(ISBLANK($E$2), "", $E$2)</f>
-        <v/>
-      </c>
-      <c r="W23" s="10" t="str">
-        <f>IF(ISBLANK($E$2), "", $E$2)</f>
-        <v/>
-      </c>
-      <c r="X23" s="10" t="str">
-        <f>IF(ISBLANK($E$2), "", $E$2)</f>
-        <v/>
-      </c>
-      <c r="Y23" s="10" t="str">
-        <f>IF(ISBLANK($E$2), "", $E$2)</f>
-        <v/>
-      </c>
+        <f t="shared" si="37"/>
+        <v>B11</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
     </row>
     <row r="24" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -2049,103 +1865,251 @@
       </c>
       <c r="B24" s="10" t="str">
         <f>IF(ISBLANK($E$5), "", $E$5)</f>
-        <v/>
+        <v>D4</v>
       </c>
       <c r="C24" s="10" t="str">
-        <f>IF(ISBLANK($E$5), "", $E$5)</f>
-        <v/>
+        <f t="shared" ref="C24:F24" si="38">IF(ISBLANK($E$5), "", $E$5)</f>
+        <v>D4</v>
       </c>
       <c r="D24" s="10" t="str">
-        <f>IF(ISBLANK($E$5), "", $E$5)</f>
-        <v/>
+        <f t="shared" si="38"/>
+        <v>D4</v>
       </c>
       <c r="E24" s="10" t="str">
-        <f>IF(ISBLANK($E$5), "", $E$5)</f>
-        <v/>
+        <f t="shared" si="38"/>
+        <v>D4</v>
       </c>
       <c r="F24" s="10" t="str">
         <f>IF(ISBLANK($H$4), "", $H$4)</f>
-        <v/>
+        <v>C7</v>
       </c>
       <c r="G24" s="10" t="str">
-        <f t="shared" ref="G24:H24" si="46">IF(ISBLANK($H$4), "", $H$4)</f>
-        <v/>
+        <f t="shared" ref="G24:I24" si="39">IF(ISBLANK($H$4), "", $H$4)</f>
+        <v>C7</v>
       </c>
       <c r="H24" s="10" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+        <f t="shared" si="39"/>
+        <v>C7</v>
       </c>
       <c r="I24" s="10" t="str">
-        <f>IF(ISBLANK($H$4), "", $H$4)</f>
-        <v/>
+        <f t="shared" si="39"/>
+        <v>C7</v>
       </c>
       <c r="J24" s="10" t="str">
-        <f t="shared" ref="J24:M24" si="47">IF(ISBLANK($F$3), "", $F$3)</f>
-        <v/>
+        <f>IF(ISBLANK($L$4), "", $L$4)</f>
+        <v>C11</v>
       </c>
       <c r="K24" s="10" t="str">
-        <f t="shared" si="47"/>
-        <v/>
+        <f t="shared" ref="K24:M24" si="40">IF(ISBLANK($L$4), "", $L$4)</f>
+        <v>C11</v>
       </c>
       <c r="L24" s="10" t="str">
-        <f t="shared" si="47"/>
-        <v/>
+        <f t="shared" si="40"/>
+        <v>C11</v>
       </c>
       <c r="M24" s="10" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="N24" s="10" t="str">
-        <f>IF(ISBLANK($C$4), "", $C$4)</f>
-        <v/>
-      </c>
-      <c r="O24" s="10" t="str">
-        <f>IF(ISBLANK($C$4), "", $C$4)</f>
-        <v/>
-      </c>
-      <c r="P24" s="10" t="str">
-        <f>IF(ISBLANK($C$4), "", $C$4)</f>
-        <v/>
-      </c>
-      <c r="Q24" s="10" t="str">
-        <f>IF(ISBLANK($C$4), "", $C$4)</f>
-        <v/>
-      </c>
-      <c r="R24" s="10" t="str">
-        <f>IF(ISBLANK($D$3), "", $D$3)</f>
-        <v/>
-      </c>
-      <c r="S24" s="10" t="str">
-        <f>IF(ISBLANK($D$3), "", $D$3)</f>
-        <v/>
-      </c>
-      <c r="T24" s="10" t="str">
-        <f>IF(ISBLANK($D$3), "", $D$3)</f>
-        <v/>
-      </c>
-      <c r="U24" s="10" t="str">
-        <f>IF(ISBLANK($D$3), "", $D$3)</f>
-        <v/>
-      </c>
-      <c r="V24" s="10" t="str">
-        <f>IF(ISBLANK($B$2), "", $B$2)</f>
-        <v/>
-      </c>
-      <c r="W24" s="10" t="str">
-        <f t="shared" ref="W24:Y24" si="48">IF(ISBLANK($B$2), "", $B$2)</f>
-        <v/>
-      </c>
-      <c r="X24" s="10" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="Y24" s="10" t="str">
-        <f t="shared" si="48"/>
-        <v/>
+        <f t="shared" si="40"/>
+        <v>C11</v>
+      </c>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <f>COUNTIF($B$9:$Y$24,B2)</f>
+        <v>4</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" ref="C27:L27" si="41">COUNTIF($B$9:$Y$24,C2)</f>
+        <v>4</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <f t="shared" ref="B28:L30" si="42">COUNTIF($B$9:$Y$24,B3)</f>
+        <v>4</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zDlXH9LLM8cAT9rtz/N17J2VXYTO7ahDAi343NA8u8Q09oi5rbNvaUBiF9aeRvM3N/mUhSlRBWaKT3O7V7pemw==" saltValue="jmJcNkJeNC0b0ycCrRD0KA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/maldi_plate_template.xlsx
+++ b/maldi_plate_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chase\Documents\GitHub\IDBac_R01_Protocols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C5DC70-15D4-446E-B9A2-732D76A7B69C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF601BE2-6AEB-418B-B7F7-1BC01E86A143}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>A</t>
   </si>
@@ -87,142 +87,10 @@
     <t>Product #:</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
     <t>Insert sample names within the blue box below. Fill down a column, move right and fill down the next column, repeat.</t>
   </si>
   <si>
     <t>Matrix Information:</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>D11</t>
   </si>
 </sst>
 </file>
@@ -378,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -412,6 +280,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,10 +563,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10:N22"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +577,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -718,156 +588,68 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="P1" s="11" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
       <c r="P2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
       <c r="P3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="8" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -950,64 +732,100 @@
       </c>
       <c r="B9" s="10" t="str">
         <f>IF(ISBLANK($B$2), "", $B$2)</f>
-        <v>A1</v>
+        <v/>
       </c>
       <c r="C9" s="10" t="str">
-        <f t="shared" ref="C9:F9" si="0">IF(ISBLANK($B$2), "", $B$2)</f>
-        <v>A1</v>
+        <f>IF(ISBLANK($B$2), "", $B$2)</f>
+        <v/>
       </c>
       <c r="D9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>A1</v>
+        <f>IF(ISBLANK($B$2), "", $B$2)</f>
+        <v/>
       </c>
       <c r="E9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>A1</v>
+        <f>IF(ISBLANK($B$2), "", $B$2)</f>
+        <v/>
       </c>
       <c r="F9" s="10" t="str">
         <f>IF(ISBLANK($F$2), "", $F$2)</f>
-        <v>A5</v>
+        <v/>
       </c>
       <c r="G9" s="10" t="str">
-        <f t="shared" ref="G9:J9" si="1">IF(ISBLANK($F$2), "", $F$2)</f>
-        <v>A5</v>
+        <f t="shared" ref="G9:I9" si="0">IF(ISBLANK($F$2), "", $F$2)</f>
+        <v/>
       </c>
       <c r="H9" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="I9" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J9" s="10" t="str">
         <f>IF(ISBLANK($H$5), "", $H$5)</f>
-        <v>D7</v>
+        <v/>
       </c>
       <c r="K9" s="10" t="str">
-        <f t="shared" ref="K9:M9" si="2">IF(ISBLANK($H$5), "", $H$5)</f>
-        <v>D7</v>
+        <f t="shared" ref="K9:M9" si="1">IF(ISBLANK($H$5), "", $H$5)</f>
+        <v/>
       </c>
       <c r="L9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N9" s="10" t="str">
+        <f t="shared" ref="N9:Q9" si="2">IF(ISBLANK($D$5), "", $D$5)</f>
+        <v/>
+      </c>
+      <c r="O9" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>D7</v>
-      </c>
-      <c r="M9" s="10" t="str">
+        <v/>
+      </c>
+      <c r="P9" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>D7</v>
-      </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
+        <v/>
+      </c>
+      <c r="Q9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R9" s="10" t="str">
+        <f t="shared" ref="R9:U9" si="3">IF(ISBLANK($F$2), "", $F$2)</f>
+        <v/>
+      </c>
+      <c r="S9" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T9" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U9" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V9" s="10" t="str">
+        <f t="shared" ref="V9:Y9" si="4">IF(ISBLANK($B$5), "", $B$5)</f>
+        <v/>
+      </c>
+      <c r="W9" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X9" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Y9" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1015,52 +833,76 @@
       </c>
       <c r="B10" s="10" t="str">
         <f>IF(ISBLANK($B$3), "", $B$3)</f>
-        <v>B1</v>
+        <v/>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="10" t="str">
         <f>IF(ISBLANK($B$3), "", $B$3)</f>
-        <v>B1</v>
+        <v/>
       </c>
       <c r="E10" s="10" t="str">
         <f>IF(ISBLANK($B$3), "", $B$3)</f>
-        <v>B1</v>
+        <v/>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="10" t="str">
         <f>IF(ISBLANK($B$3), "", $B$3)</f>
-        <v>B1</v>
+        <v/>
       </c>
       <c r="H10" s="10" t="str">
-        <f t="shared" ref="H10" si="3">IF(ISBLANK($I$2), "", $I$2)</f>
-        <v>A8</v>
+        <f t="shared" ref="H10" si="5">IF(ISBLANK($I$2), "", $I$2)</f>
+        <v/>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="10" t="str">
         <f>IF(ISBLANK($I$2), "", $I$2)</f>
-        <v>A8</v>
+        <v/>
       </c>
       <c r="K10" s="10" t="str">
         <f>IF(ISBLANK($I$2), "", $I$2)</f>
-        <v>A8</v>
+        <v/>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="10" t="str">
-        <f t="shared" ref="M10:N10" si="4">IF(ISBLANK($I$2), "", $I$2)</f>
-        <v>A8</v>
-      </c>
-      <c r="N10" s="10"/>
+        <f t="shared" ref="M10" si="6">IF(ISBLANK($I$2), "", $I$2)</f>
+        <v/>
+      </c>
+      <c r="N10" s="10" t="str">
+        <f>IF(ISBLANK($B$3), "", $B$3)</f>
+        <v/>
+      </c>
       <c r="O10" s="12"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="P10" s="10" t="str">
+        <f>IF(ISBLANK($B$3), "", $B$3)</f>
+        <v/>
+      </c>
+      <c r="Q10" s="10" t="str">
+        <f>IF(ISBLANK($B$3), "", $B$3)</f>
+        <v/>
+      </c>
       <c r="R10" s="12"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
+      <c r="S10" s="10" t="str">
+        <f>IF(ISBLANK($B$3), "", $B$3)</f>
+        <v/>
+      </c>
+      <c r="T10" s="10" t="str">
+        <f>IF(ISBLANK($D$2), "", $D$2)</f>
+        <v/>
+      </c>
       <c r="U10" s="12"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
+      <c r="V10" s="10" t="str">
+        <f>IF(ISBLANK($D$2), "", $D$2)</f>
+        <v/>
+      </c>
+      <c r="W10" s="10" t="str">
+        <f>IF(ISBLANK($D$2), "", $D$2)</f>
+        <v/>
+      </c>
       <c r="X10" s="12"/>
-      <c r="Y10" s="10"/>
+      <c r="Y10" s="10" t="str">
+        <f>IF(ISBLANK($D$2), "", $D$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1068,64 +910,100 @@
       </c>
       <c r="B11" s="10" t="str">
         <f>IF(ISBLANK($B$4), "", $B$4)</f>
-        <v>C1</v>
+        <v/>
       </c>
       <c r="C11" s="10" t="str">
-        <f t="shared" ref="C11:F11" si="5">IF(ISBLANK($B$4), "", $B$4)</f>
-        <v>C1</v>
+        <f t="shared" ref="C11:E11" si="7">IF(ISBLANK($B$4), "", $B$4)</f>
+        <v/>
       </c>
       <c r="D11" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>C1</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="E11" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>C1</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="F11" s="10" t="str">
         <f>IF(ISBLANK($F$3), "", $F$3)</f>
-        <v>B5</v>
+        <v/>
       </c>
       <c r="G11" s="10" t="str">
-        <f t="shared" ref="G11:I11" si="6">IF(ISBLANK($F$3), "", $F$3)</f>
-        <v>B5</v>
+        <f t="shared" ref="G11:I11" si="8">IF(ISBLANK($F$3), "", $F$3)</f>
+        <v/>
       </c>
       <c r="H11" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>B5</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="I11" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>B5</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="J11" s="10" t="str">
         <f>IF(ISBLANK($I$3), "", $I$3)</f>
-        <v>B8</v>
+        <v/>
       </c>
       <c r="K11" s="10" t="str">
-        <f t="shared" ref="K11:M11" si="7">IF(ISBLANK($I$3), "", $I$3)</f>
-        <v>B8</v>
+        <f t="shared" ref="K11:M11" si="9">IF(ISBLANK($I$3), "", $I$3)</f>
+        <v/>
       </c>
       <c r="L11" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>B8</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="M11" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>B8</v>
-      </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N11" s="10" t="str">
+        <f>IF(ISBLANK($G$2), "", $G$2)</f>
+        <v/>
+      </c>
+      <c r="O11" s="10" t="str">
+        <f>IF(ISBLANK($G$2), "", $G$2)</f>
+        <v/>
+      </c>
+      <c r="P11" s="10" t="str">
+        <f>IF(ISBLANK($G$2), "", $G$2)</f>
+        <v/>
+      </c>
+      <c r="Q11" s="10" t="str">
+        <f>IF(ISBLANK($G$2), "", $G$2)</f>
+        <v/>
+      </c>
+      <c r="R11" s="10" t="str">
+        <f t="shared" ref="R11:U11" si="10">IF(ISBLANK($G$5), "", $G$5)</f>
+        <v/>
+      </c>
+      <c r="S11" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T11" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="U11" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="V11" s="10" t="str">
+        <f>IF(ISBLANK($K$2), "", $K$2)</f>
+        <v/>
+      </c>
+      <c r="W11" s="10" t="str">
+        <f>IF(ISBLANK($K$2), "", $K$2)</f>
+        <v/>
+      </c>
+      <c r="X11" s="10" t="str">
+        <f>IF(ISBLANK($K$2), "", $K$2)</f>
+        <v/>
+      </c>
+      <c r="Y11" s="10" t="str">
+        <f>IF(ISBLANK($K$2), "", $K$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1133,64 +1011,100 @@
       </c>
       <c r="B12" s="10" t="str">
         <f>IF(ISBLANK($B$5), "", $B$5)</f>
-        <v>D1</v>
+        <v/>
       </c>
       <c r="C12" s="10" t="str">
-        <f t="shared" ref="C12:F12" si="8">IF(ISBLANK($B$5), "", $B$5)</f>
-        <v>D1</v>
+        <f t="shared" ref="C12:E12" si="11">IF(ISBLANK($B$5), "", $B$5)</f>
+        <v/>
       </c>
       <c r="D12" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>D1</v>
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="E12" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>D1</v>
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="F12" s="10" t="str">
         <f>IF(ISBLANK($F$4), "", $F$4)</f>
-        <v>C5</v>
+        <v/>
       </c>
       <c r="G12" s="10" t="str">
-        <f t="shared" ref="G12:I12" si="9">IF(ISBLANK($F$4), "", $F$4)</f>
-        <v>C5</v>
+        <f t="shared" ref="G12:I12" si="12">IF(ISBLANK($F$4), "", $F$4)</f>
+        <v/>
       </c>
       <c r="H12" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>C5</v>
+        <f t="shared" si="12"/>
+        <v/>
       </c>
       <c r="I12" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>C5</v>
+        <f t="shared" si="12"/>
+        <v/>
       </c>
       <c r="J12" s="10" t="str">
         <f>IF(ISBLANK($I$4), "", $I$4)</f>
-        <v>C8</v>
+        <v/>
       </c>
       <c r="K12" s="10" t="str">
-        <f t="shared" ref="K12:M12" si="10">IF(ISBLANK($I$4), "", $I$4)</f>
-        <v>C8</v>
+        <f t="shared" ref="K12:M12" si="13">IF(ISBLANK($I$4), "", $I$4)</f>
+        <v/>
       </c>
       <c r="L12" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>C8</v>
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="M12" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>C8</v>
-      </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="N12" s="10" t="str">
+        <f t="shared" ref="N12:Q12" si="14">IF(ISBLANK($C$3), "", $C$3)</f>
+        <v/>
+      </c>
+      <c r="O12" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="P12" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="Q12" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="R12" s="10" t="str">
+        <f>IF(ISBLANK($K$3), "", $K$3)</f>
+        <v/>
+      </c>
+      <c r="S12" s="10" t="str">
+        <f>IF(ISBLANK($K$3), "", $K$3)</f>
+        <v/>
+      </c>
+      <c r="T12" s="10" t="str">
+        <f>IF(ISBLANK($K$3), "", $K$3)</f>
+        <v/>
+      </c>
+      <c r="U12" s="10" t="str">
+        <f>IF(ISBLANK($K$3), "", $K$3)</f>
+        <v/>
+      </c>
+      <c r="V12" s="10" t="str">
+        <f t="shared" ref="V12:Y12" si="15">IF(ISBLANK($C$4), "", $C$4)</f>
+        <v/>
+      </c>
+      <c r="W12" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="X12" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="Y12" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1198,52 +1112,76 @@
       </c>
       <c r="B13" s="10" t="str">
         <f>IF(ISBLANK($C$2), "", $C$2)</f>
-        <v>A2</v>
+        <v/>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="10" t="str">
         <f>IF(ISBLANK($C$2), "", $C$2)</f>
-        <v>A2</v>
+        <v/>
       </c>
       <c r="E13" s="10" t="str">
         <f>IF(ISBLANK($C$2), "", $C$2)</f>
-        <v>A2</v>
+        <v/>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="10" t="str">
         <f>IF(ISBLANK($C$2), "", $C$2)</f>
-        <v>A2</v>
+        <v/>
       </c>
       <c r="H13" s="10" t="str">
-        <f t="shared" ref="H13" si="11">IF(ISBLANK($I$5), "", $I$5)</f>
-        <v>D8</v>
+        <f t="shared" ref="H13" si="16">IF(ISBLANK($I$5), "", $I$5)</f>
+        <v/>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="10" t="str">
         <f>IF(ISBLANK($I$5), "", $I$5)</f>
-        <v>D8</v>
+        <v/>
       </c>
       <c r="K13" s="10" t="str">
         <f>IF(ISBLANK($I$5), "", $I$5)</f>
-        <v>D8</v>
+        <v/>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="10" t="str">
-        <f t="shared" ref="M13:N13" si="12">IF(ISBLANK($I$5), "", $I$5)</f>
-        <v>D8</v>
-      </c>
-      <c r="N13" s="10"/>
+        <f t="shared" ref="M13" si="17">IF(ISBLANK($I$5), "", $I$5)</f>
+        <v/>
+      </c>
+      <c r="N13" s="10" t="str">
+        <f t="shared" ref="N13" si="18">IF(ISBLANK($G$3), "", $G$3)</f>
+        <v/>
+      </c>
       <c r="O13" s="12"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
+      <c r="P13" s="10" t="str">
+        <f t="shared" ref="P13:Q13" si="19">IF(ISBLANK($G$3), "", $G$3)</f>
+        <v/>
+      </c>
+      <c r="Q13" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="R13" s="12"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
+      <c r="S13" s="10" t="str">
+        <f t="shared" ref="S13" si="20">IF(ISBLANK($G$3), "", $G$3)</f>
+        <v/>
+      </c>
+      <c r="T13" s="10" t="str">
+        <f>IF(ISBLANK($J$2), "", $J$2)</f>
+        <v/>
+      </c>
       <c r="U13" s="12"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
+      <c r="V13" s="10" t="str">
+        <f>IF(ISBLANK($J$2), "", $J$2)</f>
+        <v/>
+      </c>
+      <c r="W13" s="10" t="str">
+        <f>IF(ISBLANK($J$2), "", $J$2)</f>
+        <v/>
+      </c>
       <c r="X13" s="12"/>
-      <c r="Y13" s="10"/>
+      <c r="Y13" s="10" t="str">
+        <f>IF(ISBLANK($J$2), "", $J$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1251,64 +1189,100 @@
       </c>
       <c r="B14" s="10" t="str">
         <f>IF(ISBLANK($C$3), "", $C$3)</f>
-        <v>B2</v>
+        <v/>
       </c>
       <c r="C14" s="10" t="str">
-        <f t="shared" ref="C14:F14" si="13">IF(ISBLANK($C$3), "", $C$3)</f>
-        <v>B2</v>
+        <f t="shared" ref="C14:E14" si="21">IF(ISBLANK($C$3), "", $C$3)</f>
+        <v/>
       </c>
       <c r="D14" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v>B2</v>
+        <f t="shared" si="21"/>
+        <v/>
       </c>
       <c r="E14" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v>B2</v>
+        <f t="shared" si="21"/>
+        <v/>
       </c>
       <c r="F14" s="10" t="str">
         <f>IF(ISBLANK($F$5), "", $F$5)</f>
-        <v>D5</v>
+        <v/>
       </c>
       <c r="G14" s="10" t="str">
-        <f t="shared" ref="G14:I14" si="14">IF(ISBLANK($F$5), "", $F$5)</f>
-        <v>D5</v>
+        <f t="shared" ref="G14:I14" si="22">IF(ISBLANK($F$5), "", $F$5)</f>
+        <v/>
       </c>
       <c r="H14" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>D5</v>
+        <f t="shared" si="22"/>
+        <v/>
       </c>
       <c r="I14" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>D5</v>
+        <f t="shared" si="22"/>
+        <v/>
       </c>
       <c r="J14" s="10" t="str">
         <f>IF(ISBLANK($J$2), "", $J$2)</f>
-        <v>A9</v>
+        <v/>
       </c>
       <c r="K14" s="10" t="str">
-        <f t="shared" ref="K14:M14" si="15">IF(ISBLANK($J$2), "", $J$2)</f>
-        <v>A9</v>
+        <f t="shared" ref="K14:M14" si="23">IF(ISBLANK($J$2), "", $J$2)</f>
+        <v/>
       </c>
       <c r="L14" s="10" t="str">
-        <f t="shared" si="15"/>
-        <v>A9</v>
+        <f t="shared" si="23"/>
+        <v/>
       </c>
       <c r="M14" s="10" t="str">
-        <f t="shared" si="15"/>
-        <v>A9</v>
-      </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="N14" s="10" t="str">
+        <f t="shared" ref="N14:Q14" si="24">IF(ISBLANK($B$4), "", $B$4)</f>
+        <v/>
+      </c>
+      <c r="O14" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="P14" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q14" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="R14" s="10" t="str">
+        <f t="shared" ref="R14:U14" si="25">IF(ISBLANK($H$5), "", $H$5)</f>
+        <v/>
+      </c>
+      <c r="S14" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T14" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="U14" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="V14" s="10" t="str">
+        <f t="shared" ref="V14:Y14" si="26">IF(ISBLANK($I$4), "", $I$4)</f>
+        <v/>
+      </c>
+      <c r="W14" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="X14" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="Y14" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1316,64 +1290,100 @@
       </c>
       <c r="B15" s="10" t="str">
         <f>IF(ISBLANK($C$4), "", $C$4)</f>
-        <v>C2</v>
+        <v/>
       </c>
       <c r="C15" s="10" t="str">
-        <f t="shared" ref="C15:F15" si="16">IF(ISBLANK($C$4), "", $C$4)</f>
-        <v>C2</v>
+        <f t="shared" ref="C15:E15" si="27">IF(ISBLANK($C$4), "", $C$4)</f>
+        <v/>
       </c>
       <c r="D15" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>C2</v>
+        <f t="shared" si="27"/>
+        <v/>
       </c>
       <c r="E15" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>C2</v>
+        <f t="shared" si="27"/>
+        <v/>
       </c>
       <c r="F15" s="10" t="str">
         <f>IF(ISBLANK($G$2), "", $G$2)</f>
-        <v>A6</v>
+        <v/>
       </c>
       <c r="G15" s="10" t="str">
-        <f t="shared" ref="G15:I15" si="17">IF(ISBLANK($G$2), "", $G$2)</f>
-        <v>A6</v>
+        <f t="shared" ref="G15:I15" si="28">IF(ISBLANK($G$2), "", $G$2)</f>
+        <v/>
       </c>
       <c r="H15" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v>A6</v>
+        <f t="shared" si="28"/>
+        <v/>
       </c>
       <c r="I15" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v>A6</v>
+        <f t="shared" si="28"/>
+        <v/>
       </c>
       <c r="J15" s="10" t="str">
         <f>IF(ISBLANK($J$3), "", $J$3)</f>
-        <v>B9</v>
+        <v/>
       </c>
       <c r="K15" s="10" t="str">
-        <f t="shared" ref="K15:M15" si="18">IF(ISBLANK($J$3), "", $J$3)</f>
-        <v>B9</v>
+        <f>IF(ISBLANK($J$3), "", $J$3)</f>
+        <v/>
       </c>
       <c r="L15" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>B9</v>
+        <f>IF(ISBLANK($J$3), "", $J$3)</f>
+        <v/>
       </c>
       <c r="M15" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>B9</v>
-      </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
+        <f>IF(ISBLANK($J$3), "", $J$3)</f>
+        <v/>
+      </c>
+      <c r="N15" s="10" t="str">
+        <f t="shared" ref="N15:Q15" si="29">IF(ISBLANK($G$4), "", $G$4)</f>
+        <v/>
+      </c>
+      <c r="O15" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="P15" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="Q15" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="R15" s="10" t="str">
+        <f t="shared" ref="R15:U15" si="30">IF(ISBLANK($J$5), "", $J$5)</f>
+        <v/>
+      </c>
+      <c r="S15" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="T15" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="U15" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="V15" s="10" t="str">
+        <f>IF(ISBLANK($L$4), "", $L$4)</f>
+        <v/>
+      </c>
+      <c r="W15" s="10" t="str">
+        <f>IF(ISBLANK($L$4), "", $L$4)</f>
+        <v/>
+      </c>
+      <c r="X15" s="10" t="str">
+        <f>IF(ISBLANK($L$4), "", $L$4)</f>
+        <v/>
+      </c>
+      <c r="Y15" s="10" t="str">
+        <f>IF(ISBLANK($L$4), "", $L$4)</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1381,52 +1391,76 @@
       </c>
       <c r="B16" s="10" t="str">
         <f>IF(ISBLANK($C$5), "", $C$5)</f>
-        <v>D2</v>
+        <v/>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="10" t="str">
         <f>IF(ISBLANK($C$5), "", $C$5)</f>
-        <v>D2</v>
+        <v/>
       </c>
       <c r="E16" s="10" t="str">
         <f>IF(ISBLANK($C$5), "", $C$5)</f>
-        <v>D2</v>
+        <v/>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="10" t="str">
         <f>IF(ISBLANK($C$5), "", $C$5)</f>
-        <v>D2</v>
+        <v/>
       </c>
       <c r="H16" s="10" t="str">
-        <f t="shared" ref="H16" si="19">IF(ISBLANK($J$4), "", $J$4)</f>
-        <v>C9</v>
+        <f>IF(ISBLANK($J$4), "", $J$4)</f>
+        <v/>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="10" t="str">
         <f>IF(ISBLANK($J$4), "", $J$4)</f>
-        <v>C9</v>
+        <v/>
       </c>
       <c r="K16" s="10" t="str">
         <f>IF(ISBLANK($J$4), "", $J$4)</f>
-        <v>C9</v>
+        <v/>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="10" t="str">
-        <f t="shared" ref="M16:N16" si="20">IF(ISBLANK($J$4), "", $J$4)</f>
-        <v>C9</v>
-      </c>
-      <c r="N16" s="10"/>
+        <f>IF(ISBLANK($J$4), "", $J$4)</f>
+        <v/>
+      </c>
+      <c r="N16" s="10" t="str">
+        <f>IF(ISBLANK($I$3), "", $I$3)</f>
+        <v/>
+      </c>
       <c r="O16" s="12"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
+      <c r="P16" s="10" t="str">
+        <f>IF(ISBLANK($I$3), "", $I$3)</f>
+        <v/>
+      </c>
+      <c r="Q16" s="10" t="str">
+        <f>IF(ISBLANK($I$3), "", $I$3)</f>
+        <v/>
+      </c>
       <c r="R16" s="12"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
+      <c r="S16" s="10" t="str">
+        <f>IF(ISBLANK($I$3), "", $I$3)</f>
+        <v/>
+      </c>
+      <c r="T16" s="10" t="str">
+        <f>IF(ISBLANK($F$4), "", $F$4)</f>
+        <v/>
+      </c>
       <c r="U16" s="12"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
+      <c r="V16" s="10" t="str">
+        <f>IF(ISBLANK($F$4), "", $F$4)</f>
+        <v/>
+      </c>
+      <c r="W16" s="10" t="str">
+        <f>IF(ISBLANK($F$4), "", $F$4)</f>
+        <v/>
+      </c>
       <c r="X16" s="12"/>
-      <c r="Y16" s="10"/>
+      <c r="Y16" s="10" t="str">
+        <f>IF(ISBLANK($F$4), "", $F$4)</f>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -1434,64 +1468,100 @@
       </c>
       <c r="B17" s="10" t="str">
         <f>IF(ISBLANK($D$2), "", $D$2)</f>
-        <v>A3</v>
+        <v/>
       </c>
       <c r="C17" s="10" t="str">
-        <f t="shared" ref="C17:F17" si="21">IF(ISBLANK($D$2), "", $D$2)</f>
-        <v>A3</v>
+        <f t="shared" ref="C17:E17" si="31">IF(ISBLANK($D$2), "", $D$2)</f>
+        <v/>
       </c>
       <c r="D17" s="10" t="str">
-        <f t="shared" si="21"/>
-        <v>A3</v>
+        <f t="shared" si="31"/>
+        <v/>
       </c>
       <c r="E17" s="10" t="str">
-        <f t="shared" si="21"/>
-        <v>A3</v>
+        <f t="shared" si="31"/>
+        <v/>
       </c>
       <c r="F17" s="10" t="str">
         <f>IF(ISBLANK($G$3), "", $G$3)</f>
-        <v>B6</v>
+        <v/>
       </c>
       <c r="G17" s="10" t="str">
-        <f t="shared" ref="G17:I17" si="22">IF(ISBLANK($G$3), "", $G$3)</f>
-        <v>B6</v>
+        <f t="shared" ref="G17:I17" si="32">IF(ISBLANK($G$3), "", $G$3)</f>
+        <v/>
       </c>
       <c r="H17" s="10" t="str">
-        <f t="shared" si="22"/>
-        <v>B6</v>
+        <f t="shared" si="32"/>
+        <v/>
       </c>
       <c r="I17" s="10" t="str">
-        <f t="shared" si="22"/>
-        <v>B6</v>
+        <f t="shared" si="32"/>
+        <v/>
       </c>
       <c r="J17" s="10" t="str">
         <f>IF(ISBLANK($J$5), "", $J$5)</f>
-        <v>D9</v>
+        <v/>
       </c>
       <c r="K17" s="10" t="str">
-        <f t="shared" ref="K17:M17" si="23">IF(ISBLANK($J$5), "", $J$5)</f>
-        <v>D9</v>
+        <f t="shared" ref="K17:M17" si="33">IF(ISBLANK($J$5), "", $J$5)</f>
+        <v/>
       </c>
       <c r="L17" s="10" t="str">
-        <f t="shared" si="23"/>
-        <v>D9</v>
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="M17" s="10" t="str">
-        <f t="shared" si="23"/>
-        <v>D9</v>
-      </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="N17" s="10" t="str">
+        <f t="shared" ref="N17:Q17" si="34">IF(ISBLANK($H$4), "", $H$4)</f>
+        <v/>
+      </c>
+      <c r="O17" s="10" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="P17" s="10" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="Q17" s="10" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="R17" s="10" t="str">
+        <f>IF(ISBLANK($J$4), "", $J$4)</f>
+        <v/>
+      </c>
+      <c r="S17" s="10" t="str">
+        <f>IF(ISBLANK($J$4), "", $J$4)</f>
+        <v/>
+      </c>
+      <c r="T17" s="10" t="str">
+        <f>IF(ISBLANK($J$4), "", $J$4)</f>
+        <v/>
+      </c>
+      <c r="U17" s="10" t="str">
+        <f>IF(ISBLANK($J$4), "", $J$4)</f>
+        <v/>
+      </c>
+      <c r="V17" s="10" t="str">
+        <f>IF(ISBLANK($L$2), "", $L$2)</f>
+        <v/>
+      </c>
+      <c r="W17" s="10" t="str">
+        <f>IF(ISBLANK($L$2), "", $L$2)</f>
+        <v/>
+      </c>
+      <c r="X17" s="10" t="str">
+        <f>IF(ISBLANK($L$2), "", $L$2)</f>
+        <v/>
+      </c>
+      <c r="Y17" s="10" t="str">
+        <f>IF(ISBLANK($L$2), "", $L$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1499,64 +1569,100 @@
       </c>
       <c r="B18" s="10" t="str">
         <f>IF(ISBLANK($D$3), "", $D$3)</f>
-        <v>B3</v>
+        <v/>
       </c>
       <c r="C18" s="10" t="str">
-        <f t="shared" ref="C18:F18" si="24">IF(ISBLANK($D$3), "", $D$3)</f>
-        <v>B3</v>
+        <f>IF(ISBLANK($D$3), "", $D$3)</f>
+        <v/>
       </c>
       <c r="D18" s="10" t="str">
-        <f t="shared" si="24"/>
-        <v>B3</v>
+        <f>IF(ISBLANK($D$3), "", $D$3)</f>
+        <v/>
       </c>
       <c r="E18" s="10" t="str">
-        <f t="shared" si="24"/>
-        <v>B3</v>
+        <f>IF(ISBLANK($D$3), "", $D$3)</f>
+        <v/>
       </c>
       <c r="F18" s="10" t="str">
         <f>IF(ISBLANK($G$4), "", $G$4)</f>
-        <v>C6</v>
+        <v/>
       </c>
       <c r="G18" s="10" t="str">
-        <f t="shared" ref="G18:I18" si="25">IF(ISBLANK($G$4), "", $G$4)</f>
-        <v>C6</v>
+        <f t="shared" ref="G18:I18" si="35">IF(ISBLANK($G$4), "", $G$4)</f>
+        <v/>
       </c>
       <c r="H18" s="10" t="str">
-        <f t="shared" si="25"/>
-        <v>C6</v>
+        <f t="shared" si="35"/>
+        <v/>
       </c>
       <c r="I18" s="10" t="str">
-        <f t="shared" si="25"/>
-        <v>C6</v>
+        <f t="shared" si="35"/>
+        <v/>
       </c>
       <c r="J18" s="10" t="str">
         <f>IF(ISBLANK($K$2), "", $K$2)</f>
-        <v>A10</v>
+        <v/>
       </c>
       <c r="K18" s="10" t="str">
-        <f t="shared" ref="K18:M18" si="26">IF(ISBLANK($K$2), "", $K$2)</f>
-        <v>A10</v>
+        <f>IF(ISBLANK($K$2), "", $K$2)</f>
+        <v/>
       </c>
       <c r="L18" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v>A10</v>
+        <f>IF(ISBLANK($K$2), "", $K$2)</f>
+        <v/>
       </c>
       <c r="M18" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v>A10</v>
-      </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
+        <f>IF(ISBLANK($K$2), "", $K$2)</f>
+        <v/>
+      </c>
+      <c r="N18" s="10" t="str">
+        <f>IF(ISBLANK($K$4), "", $K$4)</f>
+        <v/>
+      </c>
+      <c r="O18" s="10" t="str">
+        <f>IF(ISBLANK($K$4), "", $K$4)</f>
+        <v/>
+      </c>
+      <c r="P18" s="10" t="str">
+        <f>IF(ISBLANK($K$4), "", $K$4)</f>
+        <v/>
+      </c>
+      <c r="Q18" s="10" t="str">
+        <f>IF(ISBLANK($K$4), "", $K$4)</f>
+        <v/>
+      </c>
+      <c r="R18" s="10" t="str">
+        <f t="shared" ref="R18:U18" si="36">IF(ISBLANK($I$2), "", $I$2)</f>
+        <v/>
+      </c>
+      <c r="S18" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="T18" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="U18" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="V18" s="10" t="str">
+        <f>IF(ISBLANK($L$3), "", $L$3)</f>
+        <v/>
+      </c>
+      <c r="W18" s="10" t="str">
+        <f>IF(ISBLANK($L$3), "", $L$3)</f>
+        <v/>
+      </c>
+      <c r="X18" s="10" t="str">
+        <f>IF(ISBLANK($L$3), "", $L$3)</f>
+        <v/>
+      </c>
+      <c r="Y18" s="10" t="str">
+        <f>IF(ISBLANK($L$3), "", $L$3)</f>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1564,52 +1670,76 @@
       </c>
       <c r="B19" s="10" t="str">
         <f>IF(ISBLANK($D$4), "", $D$4)</f>
-        <v>C3</v>
+        <v/>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="10" t="str">
         <f>IF(ISBLANK($D$4), "", $D$4)</f>
-        <v>C3</v>
+        <v/>
       </c>
       <c r="E19" s="10" t="str">
         <f>IF(ISBLANK($D$4), "", $D$4)</f>
-        <v>C3</v>
+        <v/>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="10" t="str">
         <f>IF(ISBLANK($D$4), "", $D$4)</f>
-        <v>C3</v>
+        <v/>
       </c>
       <c r="H19" s="10" t="str">
-        <f t="shared" ref="H19" si="27">IF(ISBLANK($K$3), "", $K$3)</f>
-        <v>B10</v>
+        <f>IF(ISBLANK($K$3), "", $K$3)</f>
+        <v/>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="10" t="str">
         <f>IF(ISBLANK($K$3), "", $K$3)</f>
-        <v>B10</v>
+        <v/>
       </c>
       <c r="K19" s="10" t="str">
         <f>IF(ISBLANK($K$3), "", $K$3)</f>
-        <v>B10</v>
+        <v/>
       </c>
       <c r="L19" s="12"/>
       <c r="M19" s="10" t="str">
-        <f t="shared" ref="M19:N19" si="28">IF(ISBLANK($K$3), "", $K$3)</f>
-        <v>B10</v>
-      </c>
-      <c r="N19" s="10"/>
+        <f>IF(ISBLANK($K$3), "", $K$3)</f>
+        <v/>
+      </c>
+      <c r="N19" s="10" t="str">
+        <f>IF(ISBLANK($J$3), "", $J$3)</f>
+        <v/>
+      </c>
       <c r="O19" s="12"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
+      <c r="P19" s="10" t="str">
+        <f>IF(ISBLANK($J$3), "", $J$3)</f>
+        <v/>
+      </c>
+      <c r="Q19" s="10" t="str">
+        <f>IF(ISBLANK($J$3), "", $J$3)</f>
+        <v/>
+      </c>
       <c r="R19" s="12"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
+      <c r="S19" s="10" t="str">
+        <f>IF(ISBLANK($J$3), "", $J$3)</f>
+        <v/>
+      </c>
+      <c r="T19" s="10" t="str">
+        <f>IF(ISBLANK($D$4), "", $D$4)</f>
+        <v/>
+      </c>
       <c r="U19" s="12"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
+      <c r="V19" s="10" t="str">
+        <f>IF(ISBLANK($D$4), "", $D$4)</f>
+        <v/>
+      </c>
+      <c r="W19" s="10" t="str">
+        <f>IF(ISBLANK($D$4), "", $D$4)</f>
+        <v/>
+      </c>
       <c r="X19" s="12"/>
-      <c r="Y19" s="10"/>
+      <c r="Y19" s="10" t="str">
+        <f>IF(ISBLANK($D$4), "", $D$4)</f>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1617,64 +1747,100 @@
       </c>
       <c r="B20" s="10" t="str">
         <f>IF(ISBLANK($D$5), "", $D$5)</f>
-        <v>D3</v>
+        <v/>
       </c>
       <c r="C20" s="10" t="str">
-        <f t="shared" ref="C20:F20" si="29">IF(ISBLANK($D$5), "", $D$5)</f>
-        <v>D3</v>
+        <f t="shared" ref="C20:E20" si="37">IF(ISBLANK($D$5), "", $D$5)</f>
+        <v/>
       </c>
       <c r="D20" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v>D3</v>
+        <f t="shared" si="37"/>
+        <v/>
       </c>
       <c r="E20" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v>D3</v>
+        <f t="shared" si="37"/>
+        <v/>
       </c>
       <c r="F20" s="10" t="str">
         <f>IF(ISBLANK($G$5), "", $G$5)</f>
-        <v>D6</v>
+        <v/>
       </c>
       <c r="G20" s="10" t="str">
-        <f t="shared" ref="G20:I20" si="30">IF(ISBLANK($G$5), "", $G$5)</f>
-        <v>D6</v>
+        <f t="shared" ref="G20:I20" si="38">IF(ISBLANK($G$5), "", $G$5)</f>
+        <v/>
       </c>
       <c r="H20" s="10" t="str">
-        <f t="shared" si="30"/>
-        <v>D6</v>
+        <f t="shared" si="38"/>
+        <v/>
       </c>
       <c r="I20" s="10" t="str">
-        <f t="shared" si="30"/>
-        <v>D6</v>
+        <f t="shared" si="38"/>
+        <v/>
       </c>
       <c r="J20" s="10" t="str">
         <f>IF(ISBLANK($K$4), "", $K$4)</f>
-        <v>C10</v>
+        <v/>
       </c>
       <c r="K20" s="10" t="str">
-        <f t="shared" ref="K20:M20" si="31">IF(ISBLANK($K$4), "", $K$4)</f>
-        <v>C10</v>
+        <f>IF(ISBLANK($K$4), "", $K$4)</f>
+        <v/>
       </c>
       <c r="L20" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v>C10</v>
+        <f>IF(ISBLANK($K$4), "", $K$4)</f>
+        <v/>
       </c>
       <c r="M20" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v>C10</v>
-      </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
+        <f>IF(ISBLANK($K$4), "", $K$4)</f>
+        <v/>
+      </c>
+      <c r="N20" s="10" t="str">
+        <f t="shared" ref="N20:Q20" si="39">IF(ISBLANK($H$2), "", $H$2)</f>
+        <v/>
+      </c>
+      <c r="O20" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="P20" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="Q20" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="R20" s="10" t="str">
+        <f t="shared" ref="R20:U20" si="40">IF(ISBLANK($H$3), "", $H$3)</f>
+        <v/>
+      </c>
+      <c r="S20" s="10" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="T20" s="10" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="U20" s="10" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V20" s="10" t="str">
+        <f t="shared" ref="V20:Y20" si="41">IF(ISBLANK($K$5), "", $K$5)</f>
+        <v/>
+      </c>
+      <c r="W20" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="X20" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="Y20" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -1682,64 +1848,100 @@
       </c>
       <c r="B21" s="10" t="str">
         <f>IF(ISBLANK($E$2), "", $E$2)</f>
-        <v>A4</v>
+        <v/>
       </c>
       <c r="C21" s="10" t="str">
-        <f t="shared" ref="C21:F21" si="32">IF(ISBLANK($E$2), "", $E$2)</f>
-        <v>A4</v>
+        <f t="shared" ref="C21:E21" si="42">IF(ISBLANK($E$2), "", $E$2)</f>
+        <v/>
       </c>
       <c r="D21" s="10" t="str">
-        <f t="shared" si="32"/>
-        <v>A4</v>
+        <f t="shared" si="42"/>
+        <v/>
       </c>
       <c r="E21" s="10" t="str">
-        <f t="shared" si="32"/>
-        <v>A4</v>
+        <f t="shared" si="42"/>
+        <v/>
       </c>
       <c r="F21" s="10" t="str">
         <f>IF(ISBLANK($H$2), "", $H$2)</f>
-        <v>A7</v>
+        <v/>
       </c>
       <c r="G21" s="10" t="str">
-        <f t="shared" ref="G21:I21" si="33">IF(ISBLANK($H$2), "", $H$2)</f>
-        <v>A7</v>
+        <f t="shared" ref="G21:I21" si="43">IF(ISBLANK($H$2), "", $H$2)</f>
+        <v/>
       </c>
       <c r="H21" s="10" t="str">
-        <f t="shared" si="33"/>
-        <v>A7</v>
+        <f t="shared" si="43"/>
+        <v/>
       </c>
       <c r="I21" s="10" t="str">
-        <f t="shared" si="33"/>
-        <v>A7</v>
+        <f t="shared" si="43"/>
+        <v/>
       </c>
       <c r="J21" s="10" t="str">
         <f>IF(ISBLANK($K$5), "", $K$5)</f>
-        <v>D10</v>
+        <v/>
       </c>
       <c r="K21" s="10" t="str">
-        <f t="shared" ref="K21:M21" si="34">IF(ISBLANK($K$5), "", $K$5)</f>
-        <v>D10</v>
+        <f t="shared" ref="K21:M21" si="44">IF(ISBLANK($K$5), "", $K$5)</f>
+        <v/>
       </c>
       <c r="L21" s="10" t="str">
-        <f t="shared" si="34"/>
-        <v>D10</v>
+        <f t="shared" si="44"/>
+        <v/>
       </c>
       <c r="M21" s="10" t="str">
-        <f t="shared" si="34"/>
-        <v>D10</v>
-      </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N21" s="10" t="str">
+        <f>IF(ISBLANK($F$5), "", $F$5)</f>
+        <v/>
+      </c>
+      <c r="O21" s="10" t="str">
+        <f>IF(ISBLANK($F$5), "", $F$5)</f>
+        <v/>
+      </c>
+      <c r="P21" s="10" t="str">
+        <f>IF(ISBLANK($F$5), "", $F$5)</f>
+        <v/>
+      </c>
+      <c r="Q21" s="10" t="str">
+        <f>IF(ISBLANK($F$5), "", $F$5)</f>
+        <v/>
+      </c>
+      <c r="R21" s="10" t="str">
+        <f t="shared" ref="R21:U21" si="45">IF(ISBLANK($F$3), "", $F$3)</f>
+        <v/>
+      </c>
+      <c r="S21" s="10" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="T21" s="10" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="U21" s="10" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="V21" s="10" t="str">
+        <f t="shared" ref="V21:Y21" si="46">IF(ISBLANK($C$5), "", $C$5)</f>
+        <v/>
+      </c>
+      <c r="W21" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="X21" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="Y21" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -1747,52 +1949,76 @@
       </c>
       <c r="B22" s="10" t="str">
         <f>IF(ISBLANK($E$3), "", $E$3)</f>
-        <v>B4</v>
+        <v/>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="10" t="str">
         <f>IF(ISBLANK($E$3), "", $E$3)</f>
-        <v>B4</v>
+        <v/>
       </c>
       <c r="E22" s="10" t="str">
         <f>IF(ISBLANK($E$3), "", $E$3)</f>
-        <v>B4</v>
+        <v/>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="10" t="str">
         <f>IF(ISBLANK($E$3), "", $E$3)</f>
-        <v>B4</v>
+        <v/>
       </c>
       <c r="H22" s="10" t="str">
         <f>IF(ISBLANK($L$2), "", $L$2)</f>
-        <v>A11</v>
+        <v/>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="10" t="str">
         <f>IF(ISBLANK($L$2), "", $L$2)</f>
-        <v>A11</v>
+        <v/>
       </c>
       <c r="K22" s="10" t="str">
         <f>IF(ISBLANK($L$2), "", $L$2)</f>
-        <v>A11</v>
+        <v/>
       </c>
       <c r="L22" s="12"/>
       <c r="M22" s="10" t="str">
         <f>IF(ISBLANK($L$2), "", $L$2)</f>
-        <v>A11</v>
-      </c>
-      <c r="N22" s="10"/>
+        <v/>
+      </c>
+      <c r="N22" s="10" t="str">
+        <f>IF(ISBLANK($D$3), "", $D$3)</f>
+        <v/>
+      </c>
       <c r="O22" s="12"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
+      <c r="P22" s="10" t="str">
+        <f>IF(ISBLANK($D$3), "", $D$3)</f>
+        <v/>
+      </c>
+      <c r="Q22" s="10" t="str">
+        <f>IF(ISBLANK($D$3), "", $D$3)</f>
+        <v/>
+      </c>
       <c r="R22" s="12"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
+      <c r="S22" s="10" t="str">
+        <f>IF(ISBLANK($D$3), "", $D$3)</f>
+        <v/>
+      </c>
+      <c r="T22" s="10" t="str">
+        <f t="shared" ref="T22" si="47">IF(ISBLANK($I$5), "", $I$5)</f>
+        <v/>
+      </c>
       <c r="U22" s="12"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
+      <c r="V22" s="10" t="str">
+        <f t="shared" ref="V22:W22" si="48">IF(ISBLANK($I$5), "", $I$5)</f>
+        <v/>
+      </c>
+      <c r="W22" s="10" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
       <c r="X22" s="12"/>
-      <c r="Y22" s="10"/>
+      <c r="Y22" s="10" t="str">
+        <f t="shared" ref="Y22" si="49">IF(ISBLANK($I$5), "", $I$5)</f>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1800,64 +2026,100 @@
       </c>
       <c r="B23" s="10" t="str">
         <f>IF(ISBLANK($E$4), "", $E$4)</f>
-        <v>C4</v>
+        <v/>
       </c>
       <c r="C23" s="10" t="str">
-        <f t="shared" ref="C23:F23" si="35">IF(ISBLANK($E$4), "", $E$4)</f>
-        <v>C4</v>
+        <f t="shared" ref="C23:E23" si="50">IF(ISBLANK($E$4), "", $E$4)</f>
+        <v/>
       </c>
       <c r="D23" s="10" t="str">
-        <f t="shared" si="35"/>
-        <v>C4</v>
+        <f t="shared" si="50"/>
+        <v/>
       </c>
       <c r="E23" s="10" t="str">
-        <f t="shared" si="35"/>
-        <v>C4</v>
+        <f t="shared" si="50"/>
+        <v/>
       </c>
       <c r="F23" s="10" t="str">
         <f>IF(ISBLANK($H$3), "", $H$3)</f>
-        <v>B7</v>
+        <v/>
       </c>
       <c r="G23" s="10" t="str">
-        <f t="shared" ref="G23:I23" si="36">IF(ISBLANK($H$3), "", $H$3)</f>
-        <v>B7</v>
+        <f t="shared" ref="G23:I23" si="51">IF(ISBLANK($H$3), "", $H$3)</f>
+        <v/>
       </c>
       <c r="H23" s="10" t="str">
-        <f t="shared" si="36"/>
-        <v>B7</v>
+        <f t="shared" si="51"/>
+        <v/>
       </c>
       <c r="I23" s="10" t="str">
-        <f t="shared" si="36"/>
-        <v>B7</v>
+        <f t="shared" si="51"/>
+        <v/>
       </c>
       <c r="J23" s="10" t="str">
         <f>IF(ISBLANK($L$3), "", $L$3)</f>
-        <v>B11</v>
+        <v/>
       </c>
       <c r="K23" s="10" t="str">
-        <f t="shared" ref="K23:M23" si="37">IF(ISBLANK($L$3), "", $L$3)</f>
-        <v>B11</v>
+        <f>IF(ISBLANK($L$3), "", $L$3)</f>
+        <v/>
       </c>
       <c r="L23" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v>B11</v>
+        <f>IF(ISBLANK($L$3), "", $L$3)</f>
+        <v/>
       </c>
       <c r="M23" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v>B11</v>
-      </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
+        <f>IF(ISBLANK($L$3), "", $L$3)</f>
+        <v/>
+      </c>
+      <c r="N23" s="10" t="str">
+        <f t="shared" ref="N23:Q23" si="52">IF(ISBLANK($E$2), "", $E$2)</f>
+        <v/>
+      </c>
+      <c r="O23" s="10" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="P23" s="10" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="Q23" s="10" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="R23" s="10" t="str">
+        <f t="shared" ref="R23:U23" si="53">IF(ISBLANK($C$2), "", $C$2)</f>
+        <v/>
+      </c>
+      <c r="S23" s="10" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="T23" s="10" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="U23" s="10" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="V23" s="10" t="str">
+        <f>IF(ISBLANK($E$5), "", $E$5)</f>
+        <v/>
+      </c>
+      <c r="W23" s="10" t="str">
+        <f t="shared" ref="W23:Y23" si="54">IF(ISBLANK($E$5), "", $E$5)</f>
+        <v/>
+      </c>
+      <c r="X23" s="10" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="Y23" s="10" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
     </row>
     <row r="24" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1865,251 +2127,103 @@
       </c>
       <c r="B24" s="10" t="str">
         <f>IF(ISBLANK($E$5), "", $E$5)</f>
-        <v>D4</v>
+        <v/>
       </c>
       <c r="C24" s="10" t="str">
-        <f t="shared" ref="C24:F24" si="38">IF(ISBLANK($E$5), "", $E$5)</f>
-        <v>D4</v>
+        <f t="shared" ref="C24:E24" si="55">IF(ISBLANK($E$5), "", $E$5)</f>
+        <v/>
       </c>
       <c r="D24" s="10" t="str">
-        <f t="shared" si="38"/>
-        <v>D4</v>
+        <f t="shared" si="55"/>
+        <v/>
       </c>
       <c r="E24" s="10" t="str">
-        <f t="shared" si="38"/>
-        <v>D4</v>
+        <f t="shared" si="55"/>
+        <v/>
       </c>
       <c r="F24" s="10" t="str">
         <f>IF(ISBLANK($H$4), "", $H$4)</f>
-        <v>C7</v>
+        <v/>
       </c>
       <c r="G24" s="10" t="str">
-        <f t="shared" ref="G24:I24" si="39">IF(ISBLANK($H$4), "", $H$4)</f>
-        <v>C7</v>
+        <f t="shared" ref="G24:I24" si="56">IF(ISBLANK($H$4), "", $H$4)</f>
+        <v/>
       </c>
       <c r="H24" s="10" t="str">
-        <f t="shared" si="39"/>
-        <v>C7</v>
+        <f t="shared" si="56"/>
+        <v/>
       </c>
       <c r="I24" s="10" t="str">
-        <f t="shared" si="39"/>
-        <v>C7</v>
+        <f t="shared" si="56"/>
+        <v/>
       </c>
       <c r="J24" s="10" t="str">
         <f>IF(ISBLANK($L$4), "", $L$4)</f>
-        <v>C11</v>
+        <v/>
       </c>
       <c r="K24" s="10" t="str">
-        <f t="shared" ref="K24:M24" si="40">IF(ISBLANK($L$4), "", $L$4)</f>
-        <v>C11</v>
+        <f>IF(ISBLANK($L$4), "", $L$4)</f>
+        <v/>
       </c>
       <c r="L24" s="10" t="str">
-        <f t="shared" si="40"/>
-        <v>C11</v>
+        <f>IF(ISBLANK($L$4), "", $L$4)</f>
+        <v/>
       </c>
       <c r="M24" s="10" t="str">
-        <f t="shared" si="40"/>
-        <v>C11</v>
-      </c>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B27" s="4">
-        <f>COUNTIF($B$9:$Y$24,B2)</f>
-        <v>4</v>
-      </c>
-      <c r="C27" s="4">
-        <f t="shared" ref="C27:L27" si="41">COUNTIF($B$9:$Y$24,C2)</f>
-        <v>4</v>
-      </c>
-      <c r="D27" s="4">
-        <f t="shared" si="41"/>
-        <v>4</v>
-      </c>
-      <c r="E27" s="4">
-        <f t="shared" si="41"/>
-        <v>4</v>
-      </c>
-      <c r="F27" s="4">
-        <f t="shared" si="41"/>
-        <v>4</v>
-      </c>
-      <c r="G27" s="4">
-        <f t="shared" si="41"/>
-        <v>4</v>
-      </c>
-      <c r="H27" s="4">
-        <f t="shared" si="41"/>
-        <v>4</v>
-      </c>
-      <c r="I27" s="4">
-        <f t="shared" si="41"/>
-        <v>4</v>
-      </c>
-      <c r="J27" s="4">
-        <f t="shared" si="41"/>
-        <v>4</v>
-      </c>
-      <c r="K27" s="4">
-        <f t="shared" si="41"/>
-        <v>4</v>
-      </c>
-      <c r="L27" s="4">
-        <f t="shared" si="41"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
-        <f t="shared" ref="B28:L30" si="42">COUNTIF($B$9:$Y$24,B3)</f>
-        <v>4</v>
-      </c>
-      <c r="C28" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="D28" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="E28" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="F28" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="H28" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="I28" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="J28" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="K28" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="L28" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B29" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="C29" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="D29" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="E29" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="F29" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="H29" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="I29" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="J29" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="K29" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="L29" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="C30" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="D30" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="E30" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="F30" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="G30" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="H30" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="I30" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="J30" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="K30" s="4">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="L30" s="4">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f>IF(ISBLANK($L$4), "", $L$4)</f>
+        <v/>
+      </c>
+      <c r="N24" s="10" t="str">
+        <f>IF(ISBLANK($E$4), "", $E$4)</f>
+        <v/>
+      </c>
+      <c r="O24" s="10" t="str">
+        <f t="shared" ref="O24:Q24" si="57">IF(ISBLANK($E$4), "", $E$4)</f>
+        <v/>
+      </c>
+      <c r="P24" s="10" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="Q24" s="10" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="R24" s="10" t="str">
+        <f t="shared" ref="R24:U24" si="58">IF(ISBLANK($E$3), "", $E$3)</f>
+        <v/>
+      </c>
+      <c r="S24" s="10" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="T24" s="10" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="U24" s="10" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="V24" s="10" t="str">
+        <f>IF(ISBLANK($B$2), "", $B$2)</f>
+        <v/>
+      </c>
+      <c r="W24" s="10" t="str">
+        <f>IF(ISBLANK($B$2), "", $B$2)</f>
+        <v/>
+      </c>
+      <c r="X24" s="10" t="str">
+        <f>IF(ISBLANK($B$2), "", $B$2)</f>
+        <v/>
+      </c>
+      <c r="Y24" s="10" t="str">
+        <f>IF(ISBLANK($B$2), "", $B$2)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
